--- a/results_collations.xlsx
+++ b/results_collations.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevalee Shah\Documents\Cambridge\Part II\Project\SimCLR HCHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770AA4C3-21AA-4012-B4B7-052F6C2EE6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CC8F9-330E-4706-AAE8-324FC97BCCCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="2745" windowWidth="21600" windowHeight="11010" firstSheet="1" activeTab="3" xr2:uid="{AA6AE55E-2CA6-4CDB-8576-9BF510AB1313}"/>
+    <workbookView xWindow="7182" yWindow="0" windowWidth="15858" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{AA6AE55E-2CA6-4CDB-8576-9BF510AB1313}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapmanSimCLR" sheetId="1" r:id="rId1"/>
-    <sheet name="CollatedResults" sheetId="2" r:id="rId2"/>
-    <sheet name="CNN" sheetId="4" r:id="rId3"/>
-    <sheet name="MesaSimCLR" sheetId="3" r:id="rId4"/>
+    <sheet name="HandM SimCLR - Old method wake" sheetId="6" r:id="rId2"/>
+    <sheet name="Chapman BYOL " sheetId="8" r:id="rId3"/>
+    <sheet name="HCHSMesaBYOL" sheetId="9" r:id="rId4"/>
+    <sheet name="CNN" sheetId="4" r:id="rId5"/>
+    <sheet name="HchsSimCLR - new method" sheetId="5" r:id="rId6"/>
+    <sheet name="MesaSimCLR - new method" sheetId="3" r:id="rId7"/>
+    <sheet name="CollatedResults" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChapmanSimCLR!$B$4:$E$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CNN!$B$5:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MesaSimCLR!$B$5:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CNN!$D$5:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'HandM SimCLR - Old method wake'!$C$4:$T$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'HchsSimCLR - new method'!$B$4:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MesaSimCLR - new method'!$B$5:$J$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="256">
   <si>
     <t>Transformations</t>
   </si>
@@ -195,13 +201,632 @@
   </si>
   <si>
     <t>53612</t>
+  </si>
+  <si>
+    <t>0.738 - Clocs implementation of SimCLR</t>
+  </si>
+  <si>
+    <t>0.643 - Clocs implementation of BYOL</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>23561</t>
+  </si>
+  <si>
+    <t>With Wake</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>23461</t>
+  </si>
+  <si>
+    <t>Window Size</t>
+  </si>
+  <si>
+    <t>Ep1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformtions </t>
+  </si>
+  <si>
+    <t>Ep2</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Predict</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Number of Cols</t>
+  </si>
+  <si>
+    <t>sleep apnea</t>
+  </si>
+  <si>
+    <t>insomnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new method means cropping all data to the right length and no windowing </t>
+  </si>
+  <si>
+    <t>Windows Size</t>
+  </si>
+  <si>
+    <t>Epochs1</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease </t>
+  </si>
+  <si>
+    <t>Epochs2</t>
+  </si>
+  <si>
+    <t>metabolic syndrome</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>This method is done using the encoder without the projection head</t>
+  </si>
+  <si>
+    <t>Latent Dim</t>
+  </si>
+  <si>
+    <t>Projection Dim</t>
+  </si>
+  <si>
+    <t>Normal or MS</t>
+  </si>
+  <si>
+    <t>AUC OVR</t>
+  </si>
+  <si>
+    <t>AUC OVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLURM </t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>66.7     ----  89.6</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_alternate_23461_01_8_100</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_3124_01_50_F_T_mean_001_mesa_sleep_apnea</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_3124_01_50_F_T_mean_001_mesa_insomnia</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Segment Number</t>
+  </si>
+  <si>
+    <t>Main Type</t>
+  </si>
+  <si>
+    <t>SLURM</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>38503195</t>
+  </si>
+  <si>
+    <t>Macro 90% Range</t>
+  </si>
+  <si>
+    <t>Micro 90% Range</t>
+  </si>
+  <si>
+    <t>Micro Mean Std</t>
+  </si>
+  <si>
+    <t>Macro Mean Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.48 +/- 0.01</t>
+  </si>
+  <si>
+    <t>0.93 +/- 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.93 +/- 0.01</t>
+  </si>
+  <si>
+    <t>0.48 +/- 0.00</t>
+  </si>
+  <si>
+    <t>38477751</t>
+  </si>
+  <si>
+    <t>38477763</t>
+  </si>
+  <si>
+    <t>0.91 +/- 0.02</t>
+  </si>
+  <si>
+    <t>0.91 +/- 0.01</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_3124_01_50_F_T_mean_001_hchs_diabetes</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_3124_01_50_F_T_mean_001_hchs_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_3124_01_50_F_T_mean_001_hchs_sleep_apnea</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_3124_01_50_F_T_mean_001_hchs_hypertension</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_3124_01_50_F_T_mean_001_hchs_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>38503497</t>
+  </si>
+  <si>
+    <t>38503512</t>
+  </si>
+  <si>
+    <t>38503516</t>
+  </si>
+  <si>
+    <t>38503523</t>
+  </si>
+  <si>
+    <t>38503530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slurm script </t>
+  </si>
+  <si>
+    <t>OVR 90%</t>
+  </si>
+  <si>
+    <t>OVO 90%</t>
+  </si>
+  <si>
+    <t>OVR Mean Std</t>
+  </si>
+  <si>
+    <t>OVO Mean Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50 +/- 0.00</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_ms_compare_2048_100_512_128</t>
+  </si>
+  <si>
+    <t>encoder type</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_23641_01_50_F_T_mean_01_hchs_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_23641_01_50_F_T_mean_01_hchs_hypertension</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_23641_01_50_F_T_mean_01_hchs_insomnia</t>
+  </si>
+  <si>
+    <t>38536565</t>
+  </si>
+  <si>
+    <t>38536570</t>
+  </si>
+  <si>
+    <t>38536574</t>
+  </si>
+  <si>
+    <t>38536578</t>
+  </si>
+  <si>
+    <t>38536580</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_23641_01_50_F_T_mean_01_hchs_diabetes</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_23641_01_50_F_T_mean_01_hchs_sleep_apnea</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_23641_01_50_F_T_mean_01_mesa_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_512_50_23641_01_50_F_T_mean_01_mesa_sleep_apnea</t>
+  </si>
+  <si>
+    <t>38536603</t>
+  </si>
+  <si>
+    <t>38536613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.49 +/- 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.66 +/- 0.04</t>
+  </si>
+  <si>
+    <t>0.66 +/- 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.49 +/- 0.02</t>
+  </si>
+  <si>
+    <t>Percentage Macros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Micros </t>
+  </si>
+  <si>
+    <t>[0.5426234802265805, 0.5141752577319587, 0.4499799273467869, 0.4737535388486946, 0.49875100725221594, 0.4978895172526842, 0.4964576074332172, 0.47790409260024797, 0.4811317735172679, 0.4889681348014681]</t>
+  </si>
+  <si>
+    <t>[0.6312997347480106, 0.6286472148541115, 0.6047745358090185, 0.623342175066313, 0.649867374005305, 0.6551724137931034, 0.6339522546419099, 0.6445623342175066, 0.6578249336870027, 0.6551724137931034]</t>
+  </si>
+  <si>
+    <t>[0.49653418124006365, 0.5044990395308867, 0.5191140659425612, 0.5225542804172706, 0.46211856510598653, 0.5127100387763894, 0.4743141938066904, 0.49974590626764537, 0.4812521499828001, 0.4966622162883846]</t>
+  </si>
+  <si>
+    <t>[0.7214854111405835, 0.7241379310344829, 0.7374005305039789, 0.7427055702917771, 0.7400530503978779, 0.7374005305039789, 0.7320954907161805, 0.7506631299734748, 0.7453580901856764, 0.7453580901856764]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.74 +/- 0.03</t>
+  </si>
+  <si>
+    <t>0.46 +/- 0.03</t>
+  </si>
+  <si>
+    <t>0.74 +/- 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.45 +/- 0.02</t>
+  </si>
+  <si>
+    <t>[0.31573306956143715, 0.33816254324421297, 0.27860561922805854, 0.36578546009150986, 0.28087488427802565, 0.3025175751094321, 0.2575768279759802, 0.27763350912287077, 0.2813367905502737, 0.28737330681064693]</t>
+  </si>
+  <si>
+    <t>[0.5384615384615384, 0.53315649867374, 0.5570291777188329, 0.596816976127321, 0.5702917771883289, 0.5782493368700266, 0.596816976127321, 0.5782493368700266, 0.6127320954907162, 0.6047745358090185]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.60 +/- 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.32 +/- 0.04</t>
+  </si>
+  <si>
+    <t>0.60 +/- 0.03</t>
+  </si>
+  <si>
+    <t>0.31 +/- 0.02</t>
+  </si>
+  <si>
+    <t>[0.4964131994261119, 0.4977793696275072, 0.4751066856330014, 0.4758522727272727, 0.5035612535612536, 0.4743589743589744, 0.4743589743589744, 0.4743589743589744, 0.4743589743589744, 0.47285714285714286]</t>
+  </si>
+  <si>
+    <t>[0.8943089430894309, 0.897018970189702, 0.9051490514905149, 0.907859078590786, 0.907859078590786, 0.9024390243902439, 0.9024390243902439, 0.9024390243902439, 0.9024390243902439, 0.897018970189702]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.90 +/- 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.90 +/- 0.02</t>
+  </si>
+  <si>
+    <t>0.47 +/- 0.01</t>
+  </si>
+  <si>
+    <t>0.47 +/- 0.00</t>
+  </si>
+  <si>
+    <t>[0.3496297899809316, 0.3999339811578025, 0.37857142857142856, 0.35362121950921616, 0.38916634108184217, 0.3853969658038654, 0.3683548086696173, 0.3784954427156262, 0.3622765693109704, 0.37935241665937486]</t>
+  </si>
+  <si>
+    <t>[0.41644562334217505, 0.4297082228116711, 0.47214854111405835, 0.46949602122015915, 0.47480106100795755, 0.4907161803713528, 0.4880636604774536, 0.4960212201591512, 0.4880636604774536, 0.5039787798408488]</t>
+  </si>
+  <si>
+    <t>0.48 +/- 0.04</t>
+  </si>
+  <si>
+    <t>0.48 +/- 0.03</t>
+  </si>
+  <si>
+    <t>0.38 +/- 0.05</t>
+  </si>
+  <si>
+    <t>0.38 +/- 0.03</t>
+  </si>
+  <si>
+    <t>0.48 +/- 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.93 +/- 0.02</t>
+  </si>
+  <si>
+    <t>[0.47980416156670747, 0.4823386114494519, 0.5098039215686275, 0.5145535468116114, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519]</t>
+  </si>
+  <si>
+    <t>[0.9223529411764706, 0.9317647058823529, 0.9247058823529412, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529]</t>
+  </si>
+  <si>
+    <t>[0.47466007416563655, 0.47900434249620805, 0.47335811648079307, 0.474009900990099, 0.4727047146401985, 0.49905704856199906, 0.47530864197530864, 0.47335811648079307, 0.47466007416563655, 0.47530864197530864]</t>
+  </si>
+  <si>
+    <t>[0.9035294117647059, 0.8611764705882353, 0.8988235294117647, 0.9011764705882352, 0.8964705882352941, 0.9058823529411765, 0.9058823529411765, 0.8988235294117647, 0.9035294117647059, 0.9058823529411765]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.91 +/- 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.91 +/- 0.01</t>
+  </si>
+  <si>
+    <t>0.3*bs/256 with cosine decay</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_2048_100_23461_01_100_F_T_mean_01_hchs_diabetes</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_2048_100_23461_01_100_F_T_mean_01_hchs_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_2048_100_23461_01_100_F_T_mean_01_hchs_sleep_apnea</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_2048_100_23461_01_100_F_T_mean_01_hchs_hypertension</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_2048_100_23461_01_100_F_T_mean_01_hchs_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_2048_100_23461_01_100_F_T_mean_01_mesa_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_mesa_old_method_with_wake_512_2048_100_23461_01_100_F_T_mean_01_mesa_sleep_apnea</t>
+  </si>
+  <si>
+    <t>38567689</t>
+  </si>
+  <si>
+    <t>38567696</t>
+  </si>
+  <si>
+    <t>38567705</t>
+  </si>
+  <si>
+    <t>38567709</t>
+  </si>
+  <si>
+    <t>38567721</t>
+  </si>
+  <si>
+    <t>38567748</t>
+  </si>
+  <si>
+    <t>38567753</t>
+  </si>
+  <si>
+    <t>[0.47530864197530864, 0.474009900990099, 0.47466007416563655, 0.47530864197530864, 0.47530864197530864, 0.47530864197530864, 0.47530864197530864, 0.47530864197530864, 0.47530864197530864, 0.47530864197530864]</t>
+  </si>
+  <si>
+    <t>[0.9058823529411765, 0.9011764705882352, 0.9035294117647059, 0.9058823529411765, 0.9058823529411765, 0.9058823529411765, 0.9058823529411765, 0.9058823529411765, 0.9058823529411765, 0.9058823529411765]</t>
+  </si>
+  <si>
+    <t>[0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519, 0.4823386114494519]</t>
+  </si>
+  <si>
+    <t>[0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529, 0.9317647058823529]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.47 +/- 0.03</t>
+  </si>
+  <si>
+    <t>0.65 +/- 0.02</t>
+  </si>
+  <si>
+    <t>0.47 +/- 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.65 +/- 0.04</t>
+  </si>
+  <si>
+    <t>[0.49016474059503323, 0.48850850258596945, 0.4737535388486946, 0.47638888888888886, 0.4945148707947343, 0.4824399639373822, 0.5238081250183592, 0.49283366206443124, 0.5098326019827727, 0.5133390705679862]</t>
+  </si>
+  <si>
+    <t>[0.649867374005305, 0.6472148541114059, 0.623342175066313, 0.649867374005305, 0.649867374005305, 0.6445623342175066, 0.6578249336870027, 0.6472148541114059, 0.6604774535809018, 0.6657824933687002]</t>
+  </si>
+  <si>
+    <t>90% Interval Macro</t>
+  </si>
+  <si>
+    <t>90% Interval Micro</t>
+  </si>
+  <si>
+    <t>Mean Std Macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Std Micro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is using the encoder only without projector and better encoder we are using LARS optimizer, and saving embeddings </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>slurm_submit_1024_100_256_128_normal_hchs_diabetes</t>
+  </si>
+  <si>
+    <t>slurm_submit_800_100_256_128_normal_hchs_diabetes</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_100_256_128_normal_hchs_diabetes</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_100_256_128_normal_hchs_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_100_256_128_normal_hchs_sleep_apnea</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_100_256_128_normal_hchs_hypertension</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_100_256_128_normal_hchs_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_100_256_128_normal_mesa_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_100_256_128_normal_mesa_sleep_apnea</t>
+  </si>
+  <si>
+    <t>38607127</t>
+  </si>
+  <si>
+    <t>38607128</t>
+  </si>
+  <si>
+    <t>38607129</t>
+  </si>
+  <si>
+    <t>38607133</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_hchs_diabetes</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_hchs_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_hchs_sleep_apnea</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_hchs_hypertension</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_hchs_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_mesa_insomnia</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_mesa_sleep_apnea</t>
+  </si>
+  <si>
+    <t>slurm_submit_512_01_5_True_chapman_cardiac</t>
+  </si>
+  <si>
+    <t>Cardiac</t>
+  </si>
+  <si>
+    <t>chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.48 +/- 0.00</t>
+  </si>
+  <si>
+    <t>0.93 +/- 0.01</t>
+  </si>
+  <si>
+    <t>38638877</t>
+  </si>
+  <si>
+    <t>38638886</t>
+  </si>
+  <si>
+    <t>38638887</t>
+  </si>
+  <si>
+    <t>38638889</t>
+  </si>
+  <si>
+    <t>386388890</t>
+  </si>
+  <si>
+    <t>38638974</t>
+  </si>
+  <si>
+    <t>38638980</t>
+  </si>
+  <si>
+    <t>38638984</t>
+  </si>
+  <si>
+    <t>38638985</t>
+  </si>
+  <si>
+    <t>38638986</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +838,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -715,19 +1346,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -748,22 +1441,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,6 +1480,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,14 +1814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829EF721-7388-4891-AF3D-885AEC4235D6}">
-  <dimension ref="B2:K122"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -1169,27 +1864,30 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>231</v>
+        <v>23461</v>
       </c>
       <c r="C6">
         <v>0.1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
-        <v>0.69673279393319398</v>
+        <v>0.708051322502387</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>23451</v>
+        <v>23461</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.70292909295717199</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1200,24 +1898,24 @@
         <v>0.1</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
-        <v>0.708051322502387</v>
+        <v>0.70157296823098303</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>23461</v>
+        <v>231</v>
       </c>
       <c r="C9">
         <v>0.1</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>0.650254967239695</v>
+        <v>0.69673279393319398</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1242,10 +1940,10 @@
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1">
-        <v>0.67096526974068305</v>
+        <v>0.68516420892273799</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1256,57 +1954,66 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>256</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.68468586083627503</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>23451</v>
+        <v>231</v>
       </c>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>512</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.68099530619128401</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>23461</v>
+        <v>231</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="E14" s="1">
-        <v>0.70292909295717199</v>
+        <v>0.68044472615561002</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>231</v>
+        <v>23461</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E15" s="1">
-        <v>0.66310827498702196</v>
+        <v>0.679716687503091</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>23451</v>
+        <v>23461</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.67925821189727198</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1314,52 +2021,55 @@
         <v>23461</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="E17" s="1">
-        <v>0.67050503940774897</v>
+        <v>0.67347573217329204</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="E18" s="1">
-        <v>0.64661266197471001</v>
+        <v>0.67250886830648904</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>23451</v>
+        <v>231</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
+      <c r="E19" s="1">
+        <v>0.67096526974068305</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>231</v>
+        <v>23461</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D20">
         <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>0.64465436772649298</v>
+        <v>0.67050503940774897</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1367,24 +2077,27 @@
         <v>23461</v>
       </c>
       <c r="C21">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
-        <v>0.61707649351523897</v>
+        <v>0.66966630466063304</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>23451</v>
+        <v>231</v>
       </c>
       <c r="C22">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>1024</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.66893504955374705</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1392,55 +2105,55 @@
         <v>23451</v>
       </c>
       <c r="C23">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E23" s="1">
-        <v>0.65502166610951995</v>
+        <v>0.66414209935294899</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="C24">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
         <v>32</v>
       </c>
       <c r="E24" s="1">
-        <v>0.64163933769038495</v>
+        <v>0.663408454227982</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>2356</v>
+        <v>231</v>
       </c>
       <c r="C25">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1">
-        <v>0.63615138476301003</v>
+        <v>0.66310827498702196</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>2346</v>
+        <v>23461</v>
       </c>
       <c r="C26">
         <v>1E-3</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="E26" s="1">
-        <v>0.62232018659204003</v>
+        <v>0.66133663071443105</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1451,10 +2164,10 @@
         <v>1E-3</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E27" s="1">
-        <v>0.62197247111228604</v>
+        <v>0.66082218002159299</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1462,13 +2175,13 @@
         <v>23461</v>
       </c>
       <c r="C28">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E28" s="1">
-        <v>0.61807667548287704</v>
+        <v>0.659134452763393</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1476,41 +2189,41 @@
         <v>231</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1">
-        <v>0.63843587229614895</v>
+        <v>0.65848703231004102</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>23451</v>
+        <v>2346</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="E30" s="1">
-        <v>0.65506019410050798</v>
+        <v>0.65763996401453195</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>23</v>
+        <v>23451</v>
       </c>
       <c r="C31">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D31">
         <v>32</v>
       </c>
       <c r="E31" s="1">
-        <v>0.65147001455061804</v>
+        <v>0.65705221756127596</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1518,18 +2231,18 @@
         <v>2346</v>
       </c>
       <c r="C32">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="E32" s="1">
-        <v>0.61967797264651703</v>
+        <v>0.65608573410284599</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>2356</v>
+        <v>23451</v>
       </c>
       <c r="C33">
         <v>0.01</v>
@@ -1538,21 +2251,21 @@
         <v>32</v>
       </c>
       <c r="E33" s="1">
-        <v>0.62083459738404501</v>
+        <v>0.65506019410050798</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>23461</v>
+        <v>23451</v>
       </c>
       <c r="C34">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34" s="1">
-        <v>0.63475522597998502</v>
+        <v>0.65502166610951995</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1560,27 +2273,27 @@
         <v>231</v>
       </c>
       <c r="C35">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="E35" s="1">
-        <v>0.68516420892273799</v>
+        <v>0.65483380291198101</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D36">
         <v>32</v>
       </c>
       <c r="E36" s="1">
-        <v>0.663408454227982</v>
+        <v>0.65147001455061804</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1591,52 +2304,52 @@
         <v>0.1</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E37" s="1">
-        <v>0.70157296823098303</v>
+        <v>0.650254967239695</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>23461</v>
+        <v>231</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="E38" s="1">
-        <v>0.66966630466063304</v>
+        <v>0.64995142277675899</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>23</v>
+        <v>2346</v>
       </c>
       <c r="C39">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="E39" s="1">
-        <v>0.619788090087246</v>
+        <v>0.64755553430632296</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>2346</v>
+        <v>231</v>
       </c>
       <c r="C40">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1">
-        <v>0.62748727036892404</v>
+        <v>0.64661266197471001</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -1644,52 +2357,55 @@
         <v>2356</v>
       </c>
       <c r="C41">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="E41" s="1">
-        <v>0.62067531240835006</v>
+        <v>0.645229966909589</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>23451</v>
+        <v>2346</v>
       </c>
       <c r="C42">
         <v>0.1</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E42" s="1">
-        <v>0.65705221756127596</v>
+        <v>0.64521760849761101</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>23451</v>
+        <v>2356</v>
       </c>
       <c r="C43">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>256</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.64507460524473503</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>23461</v>
+        <v>2356</v>
       </c>
       <c r="C44">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D44">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="E44" s="1">
-        <v>0.67925821189727198</v>
+        <v>0.64470013588908404</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1697,164 +2413,167 @@
         <v>231</v>
       </c>
       <c r="C45">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D45">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1">
-        <v>0.65848703231004102</v>
+        <v>0.64465436772649298</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>23451</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D46">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.64163933769038495</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>2346</v>
+        <v>231</v>
       </c>
       <c r="C47">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D47">
         <v>256</v>
       </c>
       <c r="E47" s="1">
-        <v>0.65763996401453195</v>
+        <v>0.64135552740878998</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>231</v>
+        <v>23451</v>
       </c>
       <c r="C48">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D48">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E48" s="1">
-        <v>0.65483380291198101</v>
+        <v>0.64128965586750897</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>2356</v>
+        <v>231</v>
       </c>
       <c r="C49">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D49">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E49" s="1">
-        <v>0.64507460524473503</v>
+        <v>0.64082164153139498</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>23461</v>
+        <v>23451</v>
       </c>
       <c r="C50">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D50">
         <v>256</v>
       </c>
       <c r="E50" s="1">
-        <v>0.63610749024309998</v>
+        <v>0.64021083360778197</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>23</v>
+        <v>2356</v>
       </c>
       <c r="C51">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D51">
         <v>256</v>
       </c>
       <c r="E51" s="1">
-        <v>0.61308034220797902</v>
+        <v>0.64005610527795798</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>23451</v>
+        <v>2346</v>
       </c>
       <c r="C52">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D52">
         <v>256</v>
       </c>
       <c r="E52" s="1">
-        <v>0.61246627296011802</v>
+        <v>0.639366142008298</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>231</v>
+        <v>23461</v>
       </c>
       <c r="C53">
         <v>0.01</v>
       </c>
       <c r="D53">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E53" s="1">
-        <v>0.64995142277675899</v>
+        <v>0.63861343040204799</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>23451</v>
+        <v>23461</v>
       </c>
       <c r="C54">
         <v>0.01</v>
       </c>
       <c r="D54">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E54" s="1">
-        <v>0.64021083360778197</v>
+        <v>0.63846613863594504</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>2346</v>
+        <v>231</v>
       </c>
       <c r="C55">
         <v>0.01</v>
       </c>
       <c r="D55">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E55" s="1">
-        <v>0.639366142008298</v>
+        <v>0.63843587229614895</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>23461</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D56">
         <v>256</v>
       </c>
       <c r="E56" s="1">
-        <v>0.63621251618901797</v>
+        <v>0.63781416984649897</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -1862,27 +2581,27 @@
         <v>2356</v>
       </c>
       <c r="C57">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D57">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E57" s="1">
-        <v>0.61012729267054699</v>
+        <v>0.63736647008677105</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="C58">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="D58">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E58" s="1">
-        <v>0.59298039590707197</v>
+        <v>0.63641359788581098</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -1890,88 +2609,88 @@
         <v>23461</v>
       </c>
       <c r="C59">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D59">
         <v>256</v>
       </c>
       <c r="E59" s="1">
-        <v>0.679716687503091</v>
+        <v>0.63621251618901797</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>231</v>
+        <v>2356</v>
       </c>
       <c r="C60">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D60">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E60" s="1">
-        <v>0.64135552740878998</v>
+        <v>0.63615138476301003</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>2346</v>
+        <v>23461</v>
       </c>
       <c r="C61">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D61">
         <v>256</v>
       </c>
       <c r="E61" s="1">
-        <v>0.59823290699324205</v>
+        <v>0.63610749024309998</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>23</v>
+        <v>23461</v>
       </c>
       <c r="C62">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D62">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E62" s="1">
-        <v>0.63781416984649897</v>
+        <v>0.63475522597998502</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>2356</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D63">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E63" s="1">
-        <v>0.64005610527795798</v>
+        <v>0.63196940946663005</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>23451</v>
+        <v>23461</v>
       </c>
       <c r="C64">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D64">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E64" s="1">
-        <v>0.68468586083627503</v>
+        <v>0.63085442637560096</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>23461</v>
+        <v>2346</v>
       </c>
       <c r="C65">
         <v>1E-3</v>
@@ -1980,49 +2699,49 @@
         <v>512</v>
       </c>
       <c r="E65" s="1">
-        <v>0.66133663071443105</v>
+        <v>0.63008517858247304</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>2356</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D66">
         <v>512</v>
       </c>
       <c r="E66" s="1">
-        <v>0.645229966909589</v>
+        <v>0.628498089843195</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>231</v>
+        <v>2346</v>
       </c>
       <c r="C67">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D67">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E67" s="1">
-        <v>0.63641359788581098</v>
+        <v>0.62748727036892404</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>2346</v>
+        <v>23451</v>
       </c>
       <c r="C68">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D68">
         <v>512</v>
       </c>
       <c r="E68" s="1">
-        <v>0.63008517858247304</v>
+        <v>0.62430688609183305</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -2033,15 +2752,15 @@
         <v>1E-3</v>
       </c>
       <c r="D69">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="E69" s="1">
-        <v>0.62319388889632998</v>
+        <v>0.62419457594761696</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>23</v>
+        <v>23451</v>
       </c>
       <c r="C70">
         <v>1E-3</v>
@@ -2050,49 +2769,49 @@
         <v>512</v>
       </c>
       <c r="E70" s="1">
-        <v>0.59744389909385998</v>
+        <v>0.62319388889632998</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>231</v>
+        <v>2346</v>
       </c>
       <c r="C71">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="D71">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E71" s="1">
-        <v>0.64082164153139498</v>
+        <v>0.62232018659204003</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>23451</v>
+        <v>231</v>
       </c>
       <c r="C72">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="D72">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E72" s="1">
-        <v>0.64128965586750897</v>
+        <v>0.62197247111228604</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>23461</v>
+        <v>2356</v>
       </c>
       <c r="C73">
         <v>0.01</v>
       </c>
       <c r="D73">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E73" s="1">
-        <v>0.63846613863594504</v>
+        <v>0.62083459738404501</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -2103,24 +2822,24 @@
         <v>0.01</v>
       </c>
       <c r="D74">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="E74" s="1">
-        <v>0.64470013588908404</v>
+        <v>0.62075499341713003</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>2346</v>
+        <v>2356</v>
       </c>
       <c r="C75">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D75">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E75" s="1">
-        <v>0.64755553430632296</v>
+        <v>0.62067531240835006</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -2128,148 +2847,148 @@
         <v>23</v>
       </c>
       <c r="C76">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D76">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1">
-        <v>0.61956357879790303</v>
+        <v>0.619788090087246</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>23461</v>
+        <v>2346</v>
       </c>
       <c r="C77">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D77">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E77" s="1">
-        <v>0.67347573217329204</v>
+        <v>0.61967797264651703</v>
       </c>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="C78">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D78">
         <v>512</v>
       </c>
       <c r="E78" s="1">
-        <v>0.68099530619128401</v>
+        <v>0.61956357879790303</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>23</v>
+        <v>23461</v>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D79">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="E79" s="1">
-        <v>0.628498089843195</v>
+        <v>0.61807667548287704</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>2346</v>
+        <v>23461</v>
       </c>
       <c r="C80">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D80">
-        <v>512</v>
+        <v>16</v>
       </c>
       <c r="E80" s="1">
-        <v>0.65608573410284599</v>
+        <v>0.61707649351523897</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>2356</v>
+        <v>2346</v>
       </c>
       <c r="C81">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D81">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="E81" s="1">
-        <v>0.58638338880065399</v>
+        <v>0.61571675209844401</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>23451</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D82">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E82" s="1">
-        <v>0.62430688609183305</v>
+        <v>0.61308034220797902</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>231</v>
+        <v>23451</v>
       </c>
       <c r="C83">
         <v>1E-3</v>
       </c>
       <c r="D83">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E83" s="1">
-        <v>0.66082218002159299</v>
+        <v>0.61246627296011802</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>23</v>
+        <v>2356</v>
       </c>
       <c r="C84">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D84">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E84" s="1">
-        <v>0.63196940946663005</v>
+        <v>0.61012729267054699</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>23461</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D85">
         <v>1024</v>
       </c>
       <c r="E85" s="1">
-        <v>0.63085442637560096</v>
+        <v>0.60948048939530397</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>23451</v>
+        <v>2356</v>
       </c>
       <c r="C86">
         <v>1E-3</v>
@@ -2278,7 +2997,7 @@
         <v>1024</v>
       </c>
       <c r="E86" s="1">
-        <v>0.62419457594761696</v>
+        <v>0.60583748197379494</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
@@ -2286,83 +3005,83 @@
         <v>2346</v>
       </c>
       <c r="C87">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D87">
         <v>1024</v>
       </c>
       <c r="E87" s="1">
-        <v>0.61571675209844401</v>
+        <v>0.60400491753045404</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>2356</v>
+        <v>23451</v>
       </c>
       <c r="C88">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D88">
         <v>1024</v>
       </c>
       <c r="E88" s="1">
-        <v>0.60583748197379494</v>
+        <v>0.59884388318465598</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>231</v>
+        <v>2346</v>
       </c>
       <c r="C89">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D89">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E89" s="1">
-        <v>0.66893504955374705</v>
+        <v>0.59823290699324205</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>23461</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="D90">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="E90" s="1">
-        <v>0.63861343040204799</v>
+        <v>0.59744389909385998</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>2356</v>
+        <v>23</v>
       </c>
       <c r="C91">
         <v>0.01</v>
       </c>
       <c r="D91">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E91" s="1">
-        <v>0.62075499341713003</v>
+        <v>0.59298039590707197</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>2346</v>
+        <v>2356</v>
       </c>
       <c r="C92">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D92">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="E92" s="1">
-        <v>0.60400491753045404</v>
+        <v>0.58638338880065399</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -2370,100 +3089,79 @@
         <v>23451</v>
       </c>
       <c r="C93">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D93">
-        <v>1024</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0.59884388318465598</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>23</v>
+        <v>23451</v>
       </c>
       <c r="C94">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D94">
-        <v>1024</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0.60948048939530397</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>23461</v>
+        <v>23451</v>
       </c>
       <c r="C95">
         <v>0.1</v>
       </c>
       <c r="D95">
-        <v>1024</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0.659134452763393</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>231</v>
+        <v>23451</v>
       </c>
       <c r="C96">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D96">
-        <v>1024</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0.68044472615561002</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>23</v>
+        <v>23451</v>
       </c>
       <c r="C97">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D97">
-        <v>1024</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0.67250886830648904</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>2346</v>
+        <v>23451</v>
       </c>
       <c r="C98">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D98">
-        <v>1024</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0.64521760849761101</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>2356</v>
+        <v>23451</v>
       </c>
       <c r="C99">
         <v>0.1</v>
       </c>
       <c r="D99">
-        <v>1024</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0.63736647008677105</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>23451</v>
       </c>
@@ -2471,18 +3169,32 @@
         <v>0.1</v>
       </c>
       <c r="D100">
-        <v>1024</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.66414209935294899</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>23461</v>
+      </c>
+      <c r="C101">
+        <v>0.1</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G106" s="2"/>
       <c r="H106" s="2">
         <v>32</v>
@@ -2497,7 +3209,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G107" s="2">
         <v>23</v>
       </c>
@@ -2514,7 +3226,7 @@
         <v>0.67250886830648904</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G108" s="2">
         <v>231</v>
       </c>
@@ -2531,7 +3243,7 @@
         <v>0.68044472615561002</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G109" s="2">
         <v>2346</v>
       </c>
@@ -2548,7 +3260,7 @@
         <v>0.64521760849761101</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G110" s="2">
         <v>2356</v>
       </c>
@@ -2565,7 +3277,7 @@
         <v>0.63736647008677105</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G111" s="2">
         <v>23451</v>
       </c>
@@ -2582,7 +3294,7 @@
         <v>0.66414209935294899</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G112" s="2">
         <v>23561</v>
       </c>
@@ -2724,7 +3436,7 @@
   </sheetData>
   <autoFilter ref="B4:E100" xr:uid="{226D0DFE-DABE-44BD-81B2-4DF8B29DFD88}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:E100">
-      <sortCondition ref="D4:D100"/>
+      <sortCondition descending="1" ref="E4:E100"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="H107:K112">
@@ -2751,11 +3463,4672 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42A3059-9B4D-4A33-81FE-44FFA371F1B0}">
-  <dimension ref="B2:AB35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601E7AD6-C7DC-46BD-902B-95934BE8D582}">
+  <dimension ref="A4:T45"/>
+  <sheetViews>
+    <sheetView topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="17" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>512</v>
+      </c>
+      <c r="D5">
+        <v>512</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>23561</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5">
+        <v>0.482338611449451</v>
+      </c>
+      <c r="N5">
+        <v>0.93176470588235205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>512</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>23561</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6">
+        <v>0.47530864197530798</v>
+      </c>
+      <c r="N6">
+        <v>0.90588235294117603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>512</v>
+      </c>
+      <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>24361</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7">
+        <v>0.47530864197530798</v>
+      </c>
+      <c r="N7">
+        <v>0.90588235294117603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <v>512</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>24361</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>0.52729880733852896</v>
+      </c>
+      <c r="N8">
+        <v>0.66843501326259902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>512</v>
+      </c>
+      <c r="D9">
+        <v>512</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>24361</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9">
+        <v>0.40082708801010403</v>
+      </c>
+      <c r="N9">
+        <v>0.48806366047745298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>512</v>
+      </c>
+      <c r="D10">
+        <v>512</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>24361</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10">
+        <v>0.47576923076923</v>
+      </c>
+      <c r="N10">
+        <v>0.75066312997347395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>512</v>
+      </c>
+      <c r="D11">
+        <v>512</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>24361</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11">
+        <v>0.50831721470019298</v>
+      </c>
+      <c r="N11">
+        <v>0.91598915989159801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>512</v>
+      </c>
+      <c r="D12">
+        <v>512</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>24361</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12">
+        <v>0.31031199729706499</v>
+      </c>
+      <c r="N12">
+        <v>0.607427055702917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>512</v>
+      </c>
+      <c r="D13">
+        <v>512</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>23561</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13">
+        <v>0.36332973185629303</v>
+      </c>
+      <c r="N13">
+        <v>0.47214854111405802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>512</v>
+      </c>
+      <c r="D14">
+        <v>512</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>24361</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14">
+        <v>0.482338611449451</v>
+      </c>
+      <c r="N14">
+        <v>0.93176470588235205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>512</v>
+      </c>
+      <c r="D15">
+        <v>512</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>24361</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15">
+        <v>0.47530864197530798</v>
+      </c>
+      <c r="N15">
+        <v>0.90588235294117603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>512</v>
+      </c>
+      <c r="D16">
+        <v>512</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>24361</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16">
+        <v>0.32903102240558502</v>
+      </c>
+      <c r="N16">
+        <v>0.44297082228116702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>512</v>
+      </c>
+      <c r="D17">
+        <v>512</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>24361</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17">
+        <v>0.29785768529401802</v>
+      </c>
+      <c r="N17">
+        <v>0.59416445623342096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>512</v>
+      </c>
+      <c r="D18">
+        <v>512</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>24361</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>0.52365365674091902</v>
+      </c>
+      <c r="N18">
+        <v>0.66312997347480096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>512</v>
+      </c>
+      <c r="D19">
+        <v>512</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>24361</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19">
+        <v>0.47176761183896898</v>
+      </c>
+      <c r="N19">
+        <v>0.74270557029177697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>512</v>
+      </c>
+      <c r="D20">
+        <v>512</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>24361</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20">
+        <v>0.50668449197860899</v>
+      </c>
+      <c r="N20">
+        <v>0.913279132791327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>512</v>
+      </c>
+      <c r="D21">
+        <v>512</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>24361</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21">
+        <v>0.482338611449451</v>
+      </c>
+      <c r="N21">
+        <v>0.93176470588235205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>512</v>
+      </c>
+      <c r="D22">
+        <v>512</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>23561</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22">
+        <v>0.47466007416563599</v>
+      </c>
+      <c r="N22">
+        <v>0.90352941176470503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23">
+        <v>512</v>
+      </c>
+      <c r="D23">
+        <v>512</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>3124</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23">
+        <v>0.01</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23">
+        <v>0.48</v>
+      </c>
+      <c r="N23">
+        <v>0.93</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24">
+        <v>512</v>
+      </c>
+      <c r="D24">
+        <v>512</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>3124</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24">
+        <v>0.01</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24">
+        <v>0.48</v>
+      </c>
+      <c r="N24">
+        <v>0.91</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>512</v>
+      </c>
+      <c r="D25">
+        <v>512</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>3124</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25">
+        <v>0.01</v>
+      </c>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26">
+        <v>512</v>
+      </c>
+      <c r="D26">
+        <v>512</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>3124</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26">
+        <v>0.01</v>
+      </c>
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27">
+        <v>512</v>
+      </c>
+      <c r="D27">
+        <v>512</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>3124</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27">
+        <v>0.01</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28">
+        <v>512</v>
+      </c>
+      <c r="D28">
+        <v>512</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>3124</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <v>0.01</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>512</v>
+      </c>
+      <c r="D29">
+        <v>512</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>3124</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29">
+        <v>0.01</v>
+      </c>
+      <c r="K29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31">
+        <v>512</v>
+      </c>
+      <c r="D31">
+        <v>512</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>23641</v>
+      </c>
+      <c r="G31">
+        <v>0.1</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31">
+        <v>0.49</v>
+      </c>
+      <c r="N31">
+        <v>0.66</v>
+      </c>
+      <c r="O31" t="s">
+        <v>149</v>
+      </c>
+      <c r="P31" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>152</v>
+      </c>
+      <c r="R31" t="s">
+        <v>151</v>
+      </c>
+      <c r="S31" t="s">
+        <v>155</v>
+      </c>
+      <c r="T31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32">
+        <v>512</v>
+      </c>
+      <c r="D32">
+        <v>512</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>23641</v>
+      </c>
+      <c r="G32">
+        <v>0.1</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32">
+        <v>0.46</v>
+      </c>
+      <c r="N32">
+        <v>0.75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>162</v>
+      </c>
+      <c r="R32" t="s">
+        <v>161</v>
+      </c>
+      <c r="S32" t="s">
+        <v>157</v>
+      </c>
+      <c r="T32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33">
+        <v>512</v>
+      </c>
+      <c r="D33">
+        <v>512</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>23641</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33">
+        <v>0.32</v>
+      </c>
+      <c r="N33">
+        <v>0.6</v>
+      </c>
+      <c r="O33" t="s">
+        <v>166</v>
+      </c>
+      <c r="P33" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>168</v>
+      </c>
+      <c r="R33" t="s">
+        <v>167</v>
+      </c>
+      <c r="S33" t="s">
+        <v>163</v>
+      </c>
+      <c r="T33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34">
+        <v>512</v>
+      </c>
+      <c r="D34">
+        <v>512</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>23641</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34">
+        <v>0.48</v>
+      </c>
+      <c r="N34">
+        <v>0.91</v>
+      </c>
+      <c r="O34" t="s">
+        <v>173</v>
+      </c>
+      <c r="P34" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>174</v>
+      </c>
+      <c r="R34" t="s">
+        <v>172</v>
+      </c>
+      <c r="S34" t="s">
+        <v>169</v>
+      </c>
+      <c r="T34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35">
+        <v>512</v>
+      </c>
+      <c r="D35">
+        <v>512</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>23641</v>
+      </c>
+      <c r="G35">
+        <v>0.1</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35">
+        <v>0.38</v>
+      </c>
+      <c r="N35">
+        <v>0.48</v>
+      </c>
+      <c r="O35" t="s">
+        <v>179</v>
+      </c>
+      <c r="P35" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>180</v>
+      </c>
+      <c r="R35" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="S35" t="s">
+        <v>175</v>
+      </c>
+      <c r="T35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36">
+        <v>512</v>
+      </c>
+      <c r="D36">
+        <v>512</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>23641</v>
+      </c>
+      <c r="G36">
+        <v>0.1</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36">
+        <v>0.48</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>110</v>
+      </c>
+      <c r="R36" t="s">
+        <v>109</v>
+      </c>
+      <c r="S36" t="s">
+        <v>183</v>
+      </c>
+      <c r="T36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37">
+        <v>512</v>
+      </c>
+      <c r="D37">
+        <v>512</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>23641</v>
+      </c>
+      <c r="G37">
+        <v>0.1</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37">
+        <v>0.48</v>
+      </c>
+      <c r="N37">
+        <v>0.91</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>110</v>
+      </c>
+      <c r="R37" t="s">
+        <v>188</v>
+      </c>
+      <c r="S37" t="s">
+        <v>185</v>
+      </c>
+      <c r="T37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39">
+        <v>512</v>
+      </c>
+      <c r="D39">
+        <v>2048</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>23461</v>
+      </c>
+      <c r="G39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40">
+        <v>512</v>
+      </c>
+      <c r="D40">
+        <v>2048</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>23461</v>
+      </c>
+      <c r="G40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41">
+        <v>512</v>
+      </c>
+      <c r="D41">
+        <v>2048</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>23461</v>
+      </c>
+      <c r="G41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>512</v>
+      </c>
+      <c r="D42">
+        <v>2048</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>23461</v>
+      </c>
+      <c r="G42" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43">
+        <v>512</v>
+      </c>
+      <c r="D43">
+        <v>2048</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>23461</v>
+      </c>
+      <c r="G43" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43">
+        <v>0.47</v>
+      </c>
+      <c r="N43">
+        <v>0.65</v>
+      </c>
+      <c r="O43" t="s">
+        <v>210</v>
+      </c>
+      <c r="P43" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>208</v>
+      </c>
+      <c r="R43" t="s">
+        <v>209</v>
+      </c>
+      <c r="S43" t="s">
+        <v>212</v>
+      </c>
+      <c r="T43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44">
+        <v>512</v>
+      </c>
+      <c r="D44">
+        <v>2048</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>23461</v>
+      </c>
+      <c r="G44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44">
+        <v>0.1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44">
+        <v>0.48</v>
+      </c>
+      <c r="N44">
+        <v>0.93</v>
+      </c>
+      <c r="O44" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>110</v>
+      </c>
+      <c r="R44" t="s">
+        <v>109</v>
+      </c>
+      <c r="S44" t="s">
+        <v>206</v>
+      </c>
+      <c r="T44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45">
+        <v>512</v>
+      </c>
+      <c r="D45">
+        <v>2048</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>23461</v>
+      </c>
+      <c r="G45" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45">
+        <v>0.48</v>
+      </c>
+      <c r="N45">
+        <v>0.91</v>
+      </c>
+      <c r="O45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>110</v>
+      </c>
+      <c r="R45" t="s">
+        <v>188</v>
+      </c>
+      <c r="S45" t="s">
+        <v>204</v>
+      </c>
+      <c r="T45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C4:T37" xr:uid="{2E1D4AC7-B1A7-4249-8CBC-79F87C21D152}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B449C1E-24E0-4836-8128-F2BB8C3877FE}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>38397635</v>
+      </c>
+      <c r="C5">
+        <v>512</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>512</v>
+      </c>
+      <c r="F5">
+        <v>256</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>0.499705882352941</v>
+      </c>
+      <c r="I5">
+        <v>0.499705882352941</v>
+      </c>
+      <c r="O5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>38397635</v>
+      </c>
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>512</v>
+      </c>
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <v>0.49979902691329797</v>
+      </c>
+      <c r="I6">
+        <v>0.49980392156862702</v>
+      </c>
+      <c r="O6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>38431036</v>
+      </c>
+      <c r="C7">
+        <v>1024</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>1024</v>
+      </c>
+      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>38431036</v>
+      </c>
+      <c r="C8">
+        <v>1024</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>1024</v>
+      </c>
+      <c r="F8">
+        <v>512</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>0.50031245670173097</v>
+      </c>
+      <c r="I8">
+        <v>0.500294117647058</v>
+      </c>
+      <c r="O8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>38482276</v>
+      </c>
+      <c r="C9">
+        <v>2048</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>512</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10">
+        <v>38482276</v>
+      </c>
+      <c r="C10">
+        <v>2048</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>512</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10">
+        <v>0.50014355456561599</v>
+      </c>
+      <c r="I10">
+        <v>0.50009803921568596</v>
+      </c>
+      <c r="J10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <v>38514166</v>
+      </c>
+      <c r="C11">
+        <v>2048</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>512</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>38514166</v>
+      </c>
+      <c r="C12">
+        <v>2048</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>512</v>
+      </c>
+      <c r="F12">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBFEA-1E1E-4E34-8704-944B12C48546}">
+  <dimension ref="A2:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O4" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>512</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>256</v>
+      </c>
+      <c r="H5">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>512</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>256</v>
+      </c>
+      <c r="H6">
+        <v>128</v>
+      </c>
+      <c r="I6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>256</v>
+      </c>
+      <c r="H7">
+        <v>128</v>
+      </c>
+      <c r="I7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>512</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>256</v>
+      </c>
+      <c r="H8">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>512</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>256</v>
+      </c>
+      <c r="H9">
+        <v>128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <v>512</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>256</v>
+      </c>
+      <c r="H10">
+        <v>128</v>
+      </c>
+      <c r="I10" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10">
+        <v>0.48</v>
+      </c>
+      <c r="L10">
+        <v>0.93</v>
+      </c>
+      <c r="M10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>512</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>256</v>
+      </c>
+      <c r="H11">
+        <v>128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11">
+        <v>0.48</v>
+      </c>
+      <c r="L11">
+        <v>0.91</v>
+      </c>
+      <c r="M11" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>1024</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>256</v>
+      </c>
+      <c r="H12">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>800</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>256</v>
+      </c>
+      <c r="H13">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A46EE1-7CAF-49A9-B1BA-545C7C32D36C}">
+  <dimension ref="A3:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>512</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>0.45054945054945</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>512</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="K8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>512</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.65782493368700201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>512</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="K10">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>512</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="K11">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>512</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12">
+        <v>0.48304999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.93442621999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>512</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13">
+        <v>0.48605999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.94569999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>512</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>512</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>512</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>512</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>512</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>512</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>512</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>512</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D5:K11" xr:uid="{A58E79FB-B7E3-4BBD-A0B0-933FD4ED5FDD}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9069C016-C277-4871-8E62-8014E1C22F6D}">
+  <dimension ref="B4:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>512</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>0.47884159999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.63586955999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>512</v>
+      </c>
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>23561</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>512</v>
+      </c>
+      <c r="C7">
+        <v>512</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>346</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>512</v>
+      </c>
+      <c r="C8">
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>614</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>512</v>
+      </c>
+      <c r="C9">
+        <v>512</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>0.47652</v>
+      </c>
+      <c r="N9">
+        <v>0.91032000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>512</v>
+      </c>
+      <c r="C10">
+        <v>512</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
+        <v>1E-3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="56">
+        <v>0.47159705000000002</v>
+      </c>
+      <c r="N10">
+        <v>0.7581521</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>512</v>
+      </c>
+      <c r="C11">
+        <v>512</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>614</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11">
+        <v>0.4632</v>
+      </c>
+      <c r="N11">
+        <v>0.66032599999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>512</v>
+      </c>
+      <c r="C12">
+        <v>512</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>346</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12">
+        <v>0.01</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>0.4617134</v>
+      </c>
+      <c r="N12">
+        <v>0.65760799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>512</v>
+      </c>
+      <c r="C13">
+        <v>512</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>23561</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>0.4602</v>
+      </c>
+      <c r="N13">
+        <v>0.65488999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>512</v>
+      </c>
+      <c r="C14">
+        <v>512</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>23561</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="56">
+        <v>0.441996</v>
+      </c>
+      <c r="N14">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>512</v>
+      </c>
+      <c r="C15">
+        <v>512</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>346</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="56">
+        <v>0.441996</v>
+      </c>
+      <c r="N15">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="C16">
+        <v>512</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>614</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="56">
+        <v>0.43112</v>
+      </c>
+      <c r="N16">
+        <v>0.7581521</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>512</v>
+      </c>
+      <c r="C17">
+        <v>512</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>23561</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17">
+        <v>0.1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="N17">
+        <v>0.497282608695652</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>512</v>
+      </c>
+      <c r="C18">
+        <v>512</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18">
+        <v>1E-3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>0.351053</v>
+      </c>
+      <c r="N18">
+        <v>0.47828999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>512</v>
+      </c>
+      <c r="C19">
+        <v>512</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>614</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>0.325791</v>
+      </c>
+      <c r="N19">
+        <v>0.46467389999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>512</v>
+      </c>
+      <c r="C20">
+        <v>512</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>346</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20">
+        <v>0.01</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>0.28132800000000002</v>
+      </c>
+      <c r="N20">
+        <v>0.467391</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>512</v>
+      </c>
+      <c r="C21">
+        <v>512</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>614</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>0.2606</v>
+      </c>
+      <c r="N21">
+        <v>0.61141000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>512</v>
+      </c>
+      <c r="C22">
+        <v>512</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22">
+        <v>1E-3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>0.25822970000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.60326080000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>512</v>
+      </c>
+      <c r="C23">
+        <v>512</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>23561</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="N23">
+        <v>0.60319999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>512</v>
+      </c>
+      <c r="C24">
+        <v>512</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24">
+        <v>346</v>
+      </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24">
+        <v>0.01</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="N24">
+        <v>0.60319999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:N24" xr:uid="{315B2EDD-218F-4A23-8AB0-AB8E5F204DB4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:N24">
+      <sortCondition descending="1" ref="M4:M24"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F456152D-3B5F-4521-8CD6-B065891FD82C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B3:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>0.48609000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.94588000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23561</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="J7">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>0.48609000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.94588000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>23461</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="J9">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6543210</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="J10">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1456</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="J11">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>0.48609000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.94588000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>23561</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="J13">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23461</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="J14">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="J15">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="J16">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="J17">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18">
+        <v>0.47607361963190098</v>
+      </c>
+      <c r="J18">
+        <v>0.90866510538641598</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>52506</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="J19">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>52506</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="J20">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D21">
+        <v>1E-3</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="J21">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="J22">
+        <v>0.93911007025761095</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3154</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23">
+        <v>0.48367593712212797</v>
+      </c>
+      <c r="J23">
+        <v>0.93676814988290402</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24">
+        <v>0.48304999999999998</v>
+      </c>
+      <c r="J24">
+        <v>0.93442999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25">
+        <v>0.48304999999999998</v>
+      </c>
+      <c r="J25">
+        <v>0.93442999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26">
+        <v>0.48304999999999998</v>
+      </c>
+      <c r="J26">
+        <v>0.93442999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:J26" xr:uid="{A8945DE4-E4CC-4C3F-A018-9D7E8A0E0181}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sleep Apnea"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:J26">
+      <sortCondition ref="I5:I26"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42A3059-9B4D-4A33-81FE-44FFA371F1B0}">
+  <dimension ref="B2:AB46"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="K30" sqref="H25:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,7 +8138,8 @@
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="14" max="20" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" customWidth="1"/>
+    <col min="23" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
@@ -2779,19 +8153,19 @@
       </c>
     </row>
     <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>32</v>
@@ -2807,7 +8181,7 @@
       </c>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="8">
         <v>23</v>
       </c>
@@ -2825,7 +8199,7 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="8">
         <v>231</v>
       </c>
@@ -2843,7 +8217,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="8">
         <v>2346</v>
       </c>
@@ -2861,7 +8235,7 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="8">
         <v>2356</v>
       </c>
@@ -2879,7 +8253,7 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="8">
         <v>23451</v>
       </c>
@@ -2897,7 +8271,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="9">
         <v>23561</v>
       </c>
@@ -2936,81 +8310,81 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="66" t="s">
+      <c r="L13" s="96"/>
+      <c r="M13" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="66" t="s">
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="67"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="82"/>
       <c r="AA13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="AB13" s="22"/>
     </row>
     <row r="14" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="70" t="s">
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70" t="s">
+      <c r="N14" s="83"/>
+      <c r="O14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70" t="s">
+      <c r="P14" s="83"/>
+      <c r="Q14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="69"/>
-      <c r="S14" s="70" t="s">
+      <c r="R14" s="83"/>
+      <c r="S14" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="69"/>
-      <c r="U14" s="70" t="s">
+      <c r="T14" s="83"/>
+      <c r="U14" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="71"/>
-      <c r="W14" s="68" t="s">
+      <c r="V14" s="80"/>
+      <c r="W14" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="70" t="s">
+      <c r="X14" s="83"/>
+      <c r="Y14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="71"/>
+      <c r="Z14" s="80"/>
       <c r="AA14" s="29" t="s">
         <v>20</v>
       </c>
       <c r="AB14" s="22"/>
     </row>
     <row r="15" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20">
         <v>32</v>
@@ -3024,8 +8398,8 @@
       <c r="G15" s="21">
         <v>1024</v>
       </c>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="23" t="s">
         <v>19</v>
       </c>
@@ -3074,7 +8448,7 @@
       <c r="AB15" s="22"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="17">
         <v>23</v>
       </c>
@@ -3090,7 +8464,7 @@
       <c r="G16" s="14">
         <v>0.60948048939530397</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="93" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="25" t="s">
@@ -3143,8 +8517,8 @@
       </c>
       <c r="AB16" s="22"/>
     </row>
-    <row r="17" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
+    <row r="17" spans="2:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="87"/>
       <c r="C17" s="17">
         <v>231</v>
       </c>
@@ -3160,7 +8534,7 @@
       <c r="G17" s="14">
         <v>0.66893504955374705</v>
       </c>
-      <c r="K17" s="73"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="27" t="s">
         <v>22</v>
       </c>
@@ -3178,13 +8552,13 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="24"/>
-      <c r="AA17" s="24">
-        <v>0.73799999999999999</v>
+      <c r="AA17" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="AB17" s="22"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="17">
         <v>2346</v>
       </c>
@@ -3200,7 +8574,7 @@
       <c r="G18" s="14">
         <v>0.60400491753045404</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="93" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="26" t="s">
@@ -3251,8 +8625,8 @@
       </c>
       <c r="AB18" s="22"/>
     </row>
-    <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
+    <row r="19" spans="2:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="87"/>
       <c r="C19" s="17">
         <v>2356</v>
       </c>
@@ -3268,7 +8642,7 @@
       <c r="G19" s="14">
         <v>0.62075499341713003</v>
       </c>
-      <c r="K19" s="73"/>
+      <c r="K19" s="94"/>
       <c r="L19" s="38" t="s">
         <v>22</v>
       </c>
@@ -3286,13 +8660,13 @@
       <c r="X19" s="32"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="24"/>
-      <c r="AA19" s="24">
-        <v>0.64300000000000002</v>
+      <c r="AA19" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="AB19" s="22"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="17">
         <v>23451</v>
       </c>
@@ -3308,7 +8682,7 @@
       <c r="G20" s="14">
         <v>0.59884388318465598</v>
       </c>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="101" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="47" t="s">
@@ -3318,37 +8692,37 @@
         <v>44</v>
       </c>
       <c r="N20" s="34"/>
-      <c r="O20" s="57" t="s">
+      <c r="O20" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="57" t="s">
+      <c r="P20" s="91"/>
+      <c r="Q20" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="R20" s="58"/>
+      <c r="R20" s="91"/>
       <c r="S20" s="35" t="s">
         <v>44</v>
       </c>
       <c r="T20" s="34"/>
-      <c r="U20" s="57" t="s">
+      <c r="U20" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="56"/>
-      <c r="W20" s="55" t="s">
+      <c r="V20" s="103"/>
+      <c r="W20" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="55" t="s">
+      <c r="X20" s="91"/>
+      <c r="Y20" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Z20" s="56"/>
+      <c r="Z20" s="103"/>
       <c r="AA20" s="45" t="s">
         <v>43</v>
       </c>
       <c r="AB20" s="22"/>
     </row>
     <row r="21" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="18">
         <v>23561</v>
       </c>
@@ -3364,7 +8738,7 @@
       <c r="G21" s="16">
         <v>0.63861343040204799</v>
       </c>
-      <c r="K21" s="81"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="38" t="s">
         <v>48</v>
       </c>
@@ -3412,7 +8786,9 @@
       <c r="AB21" s="22"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="M22" s="22"/>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -3420,20 +8796,6 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
-      <c r="U22">
-        <v>0.45054945054945</v>
-      </c>
-      <c r="V22">
-        <v>0.5</v>
-      </c>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="Z22">
-        <v>0.93911007025761095</v>
-      </c>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
     </row>
@@ -3446,14 +8808,6 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="22"/>
       <c r="AA23" s="22"/>
       <c r="AB23" s="22"/>
     </row>
@@ -3484,10 +8838,20 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="U25">
+        <v>0.45054945054945</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
+      <c r="Y25">
+        <v>0.48429951690821199</v>
+      </c>
+      <c r="Z25">
+        <v>0.93911007025761095</v>
+      </c>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
     </row>
@@ -3501,10 +8865,12 @@
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
+      <c r="V26" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
       <c r="Z26" s="22"/>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
@@ -3526,9 +8892,6 @@
       <c r="AB27" s="22"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="L28" t="s">
-        <v>27</v>
-      </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -3553,8 +8916,12 @@
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
+      <c r="S29">
+        <v>0.52729880733852896</v>
+      </c>
+      <c r="T29">
+        <v>0.66843501326259902</v>
+      </c>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
@@ -3570,8 +8937,6 @@
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
@@ -3618,7 +8983,7 @@
       <c r="AA32" s="22"/>
       <c r="AB32" s="22"/>
     </row>
-    <row r="33" spans="13:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:28" x14ac:dyDescent="0.25">
       <c r="M33" s="22" t="s">
         <v>25</v>
       </c>
@@ -3638,25 +9003,21 @@
       <c r="AA33" s="22"/>
       <c r="AB33" s="22"/>
     </row>
-    <row r="34" spans="13:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:28" x14ac:dyDescent="0.25">
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
       <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
       <c r="AA34" s="22"/>
       <c r="AB34" s="22"/>
     </row>
-    <row r="35" spans="13:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:28" x14ac:dyDescent="0.25">
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -3674,16 +9035,403 @@
       <c r="AA35" s="22"/>
       <c r="AB35" s="22"/>
     </row>
+    <row r="37" spans="11:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="11:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="96"/>
+      <c r="M38" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="11:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="97"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="83"/>
+      <c r="O39" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="83"/>
+      <c r="S39" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39" s="83"/>
+      <c r="U39" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="V39" s="80"/>
+      <c r="W39" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="11:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="S40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T40" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V40" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X40" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z40" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA40" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K41" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="66">
+        <f>100*0.508317214700193</f>
+        <v>50.831721470019296</v>
+      </c>
+      <c r="N41" s="64">
+        <f>100*0.915989159891598</f>
+        <v>91.598915989159806</v>
+      </c>
+      <c r="O41" s="63">
+        <f>0.400827088010104*100</f>
+        <v>40.082708801010405</v>
+      </c>
+      <c r="P41" s="64">
+        <f>0.488063660477453*100</f>
+        <v>48.8063660477453</v>
+      </c>
+      <c r="Q41" s="63">
+        <f>0.310311997297065*100</f>
+        <v>31.031199729706501</v>
+      </c>
+      <c r="R41" s="64">
+        <f>0.607427055702917*100</f>
+        <v>60.742705570291697</v>
+      </c>
+      <c r="S41" s="65">
+        <f>0.47576923076923*100</f>
+        <v>47.576923076923002</v>
+      </c>
+      <c r="T41" s="64">
+        <f>0.750663129973474*100</f>
+        <v>75.066312997347396</v>
+      </c>
+      <c r="U41" s="65">
+        <f>100*0.527298807338529</f>
+        <v>52.729880733852895</v>
+      </c>
+      <c r="V41" s="67">
+        <f>100*0.668435013262599</f>
+        <v>66.843501326259897</v>
+      </c>
+      <c r="W41" s="78">
+        <f>100*0.476073619631901</f>
+        <v>47.607361963190101</v>
+      </c>
+      <c r="X41" s="68">
+        <f>100*0.908665105386416</f>
+        <v>90.866510538641592</v>
+      </c>
+      <c r="Y41" s="69">
+        <f>100*0.484299516908212</f>
+        <v>48.429951690821198</v>
+      </c>
+      <c r="Z41" s="70">
+        <f>100*0.939110070257611</f>
+        <v>93.911007025761094</v>
+      </c>
+      <c r="AA41" s="58">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="42" spans="11:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="94"/>
+      <c r="L42" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="23"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K43" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="33">
+        <v>9.4</v>
+      </c>
+      <c r="N43" s="59">
+        <v>89.1</v>
+      </c>
+      <c r="O43" s="57">
+        <v>31.1</v>
+      </c>
+      <c r="P43" s="59">
+        <v>49.3</v>
+      </c>
+      <c r="Q43" s="57">
+        <v>28.7</v>
+      </c>
+      <c r="R43" s="59">
+        <v>60.5</v>
+      </c>
+      <c r="S43" s="41">
+        <v>48.1</v>
+      </c>
+      <c r="T43" s="59"/>
+      <c r="U43" s="77">
+        <v>47.6</v>
+      </c>
+      <c r="V43" s="67">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="W43" s="63">
+        <f>100*0.158</f>
+        <v>15.8</v>
+      </c>
+      <c r="X43" s="64">
+        <f>100*0.9</f>
+        <v>90</v>
+      </c>
+      <c r="Y43" s="63">
+        <f>100*0.161</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Z43" s="67">
+        <f>100*0.93</f>
+        <v>93</v>
+      </c>
+      <c r="AA43" s="54">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="11:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K44" s="94"/>
+      <c r="L44" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="23"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="11:28" x14ac:dyDescent="0.25">
+      <c r="K45" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="59"/>
+      <c r="O45" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="R45" s="91"/>
+      <c r="S45" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="T45" s="59"/>
+      <c r="U45" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45" s="103"/>
+      <c r="W45" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="X45" s="91"/>
+      <c r="Y45" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z45" s="103"/>
+      <c r="AA45" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="11:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="102"/>
+      <c r="L46" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="23">
+        <v>43.6</v>
+      </c>
+      <c r="N46" s="32"/>
+      <c r="O46" s="53">
+        <v>45.8</v>
+      </c>
+      <c r="P46" s="32">
+        <v>42.5</v>
+      </c>
+      <c r="Q46" s="53">
+        <v>55.7</v>
+      </c>
+      <c r="R46" s="32">
+        <v>41.4</v>
+      </c>
+      <c r="S46" s="23">
+        <v>44.1</v>
+      </c>
+      <c r="T46" s="32"/>
+      <c r="U46" s="71">
+        <f>100*0.3968</f>
+        <v>39.68</v>
+      </c>
+      <c r="V46" s="72">
+        <f>100*0.657824933687002</f>
+        <v>65.782493368700202</v>
+      </c>
+      <c r="W46" s="73">
+        <f>100*0.476073619631901</f>
+        <v>47.607361963190101</v>
+      </c>
+      <c r="X46" s="74">
+        <f>100*0.908665105386416</f>
+        <v>90.866510538641592</v>
+      </c>
+      <c r="Y46" s="75">
+        <f>100*0.473684210526315</f>
+        <v>47.368421052631497</v>
+      </c>
+      <c r="Z46" s="76">
+        <f>100*0.9</f>
+        <v>90</v>
+      </c>
+      <c r="AA46" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
+  <mergeCells count="41">
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="M38:V38"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="V26:Y26"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C14:G14"/>
@@ -3694,11 +9442,14 @@
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="K13:L15"/>
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:G11">
     <cfRule type="colorScale" priority="14">
@@ -3751,619 +9502,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A46EE1-7CAF-49A9-B1BA-545C7C32D36C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B3:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>512</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>0.45054945054945</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>512</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="I7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>512</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>0.47368421052631499</v>
-      </c>
-      <c r="I8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>512</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9">
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.65782493368700201</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>512</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="I10">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>512</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="I11">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B5:I11" xr:uid="{A58E79FB-B7E3-4BBD-A0B0-933FD4ED5FDD}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Metabolic Syndrome"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F456152D-3B5F-4521-8CD6-B065891FD82C}">
-  <dimension ref="B3:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23561</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="H6">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>23561</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="H7">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23461</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="H8">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>23461</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="H9">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6543210</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="H10">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1456</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="H11">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>35246</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="H12">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>52506</v>
-      </c>
-      <c r="D13">
-        <v>0.1</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="H13">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
-        <v>52506</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="H14">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3154</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>0.48367593712212797</v>
-      </c>
-      <c r="H15">
-        <v>0.93676814988290402</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>0.01</v>
-      </c>
-      <c r="E16">
-        <v>16</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="H16">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="H17">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>0.1</v>
-      </c>
-      <c r="E18">
-        <v>64</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <v>0.47607361963190098</v>
-      </c>
-      <c r="H18">
-        <v>0.90866510538641598</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>35246</v>
-      </c>
-      <c r="D19">
-        <v>1E-3</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="H19">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>0.48429951690821199</v>
-      </c>
-      <c r="H20">
-        <v>0.93911007025761095</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B5:H16" xr:uid="{EEAADDD0-9A14-4CDF-A91F-6C204E14C696}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:H15">
-      <sortCondition descending="1" ref="G5:G16"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/results_collations.xlsx
+++ b/results_collations.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevalee Shah\Documents\Cambridge\Part II\Project\SimCLR HCHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F67F9E-09C3-455E-BBC1-27CF50BD9F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658C6FB-7D72-4E92-B2D9-74E56CADF0D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="480" windowWidth="14550" windowHeight="15345" firstSheet="7" activeTab="8" xr2:uid="{AA6AE55E-2CA6-4CDB-8576-9BF510AB1313}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{AA6AE55E-2CA6-4CDB-8576-9BF510AB1313}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapmanSimCLR" sheetId="1" r:id="rId1"/>
     <sheet name="HandM SimCLR - Old method wake" sheetId="6" r:id="rId2"/>
     <sheet name="Chapman BYOL " sheetId="8" r:id="rId3"/>
     <sheet name="HCHSMesaBYOL" sheetId="9" r:id="rId4"/>
-    <sheet name="CNN" sheetId="4" r:id="rId5"/>
-    <sheet name="HchsSimCLR - new method" sheetId="5" r:id="rId6"/>
-    <sheet name="MesaSimCLR - new method" sheetId="3" r:id="rId7"/>
-    <sheet name="CollatedResults" sheetId="2" r:id="rId8"/>
-    <sheet name="alldoubletransforms" sheetId="10" r:id="rId9"/>
+    <sheet name="alldoubletransforms" sheetId="10" r:id="rId5"/>
+    <sheet name="CNN" sheetId="4" r:id="rId6"/>
+    <sheet name="HchsSimCLR - new method" sheetId="5" r:id="rId7"/>
+    <sheet name="MesaSimCLR - new method" sheetId="3" r:id="rId8"/>
+    <sheet name="CollatedResults" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChapmanSimCLR!$C$4:$F$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CNN!$D$5:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CNN!$A$5:$Q$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'HandM SimCLR - Old method wake'!$A$4:$V$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HCHSMesaBYOL!$A$4:$Q$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'HchsSimCLR - new method'!$B$4:$N$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MesaSimCLR - new method'!$B$5:$J$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'HchsSimCLR - new method'!$B$4:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'MesaSimCLR - new method'!$B$5:$J$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="886">
   <si>
     <t>Transformations</t>
   </si>
@@ -2429,6 +2429,285 @@
   </si>
   <si>
     <t xml:space="preserve"> /home/ks877/project/SimCLR_HCHS/embeddings/double_transforms/20210501-230044_testing-False_bs-1024_lr-0.1_chapman_cardiac-00-16.pickle</t>
+  </si>
+  <si>
+    <t>0.6379697228171761</t>
+  </si>
+  <si>
+    <t>0.616805018358967</t>
+  </si>
+  <si>
+    <t>0.6040684406787887</t>
+  </si>
+  <si>
+    <t>0.596925774294218</t>
+  </si>
+  <si>
+    <t>0.657180738183766</t>
+  </si>
+  <si>
+    <t>0.6351089011431863</t>
+  </si>
+  <si>
+    <t>0.6359601247596415</t>
+  </si>
+  <si>
+    <t>0.6111769103566163</t>
+  </si>
+  <si>
+    <t>0.6180299179581207</t>
+  </si>
+  <si>
+    <t>0.6413810438933335</t>
+  </si>
+  <si>
+    <t>0.6239168938770387</t>
+  </si>
+  <si>
+    <t>0.6253020220628224</t>
+  </si>
+  <si>
+    <t>0.6110568819162813</t>
+  </si>
+  <si>
+    <t>0.6414787186045432</t>
+  </si>
+  <si>
+    <t>0.6408822885192108</t>
+  </si>
+  <si>
+    <t>0.6331782751296593</t>
+  </si>
+  <si>
+    <t>0.6032030020757461</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_10_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_20_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_80_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_160_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_8_40_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_32_40_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_128_40_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_512_40_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_2048_40_512_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_64_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_128_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_256_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_2048_128</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_512_64</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_512_256</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_512_512</t>
+  </si>
+  <si>
+    <t>slurm_submit_chapman_compare_1024_40_512_1024</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_10_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771552</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_20_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771566</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771569</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_80_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771570</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_160_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771572</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_8_40_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771618</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_32_40_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771619</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_128_40_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771622</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_512_40_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771624</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_2048_40_512_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771625</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_64_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771862</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_128_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771868</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_256_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771869</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_1024_128_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39771886</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_64_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39772098</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_512_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_256_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39772144</t>
+  </si>
+  <si>
+    <t>39772146</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_1024_2_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39772149</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_128_3_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39772390</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_128_4_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39772393</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_128_5_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39772397</t>
+  </si>
+  <si>
+    <t>slurm_submit_hchs_compare_1024_40_512_128_6_metabolic_syndrome</t>
+  </si>
+  <si>
+    <t>39772399</t>
+  </si>
+  <si>
+    <t>slurm_submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slurm </t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>latent dim</t>
+  </si>
+  <si>
+    <t>proj dim</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal auc ovr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms auc ovr </t>
+  </si>
+  <si>
+    <t>40/42</t>
+  </si>
+  <si>
+    <t>41/43</t>
+  </si>
+  <si>
+    <t>39918031</t>
+  </si>
+  <si>
+    <t>/home/ks877/project/SimCLR_HCHS/embeddings/hchs/diabetes/cnn/20210510-135304_testing-False_bs-512_lr-0.1_eps-5_embeddings.pickle</t>
   </si>
 </sst>
 </file>
@@ -2462,7 +2741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2472,12 +2751,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCBFBAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2841,7 +3114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3037,11 +3310,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3050,7 +3359,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3071,55 +3392,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3446,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829EF721-7388-4891-AF3D-885AEC4235D6}">
   <dimension ref="A2:Q122"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4829,7 +5101,7 @@
       <c r="A104" t="s">
         <v>757</v>
       </c>
-      <c r="B104" s="83" t="s">
+      <c r="B104" s="80" t="s">
         <v>758</v>
       </c>
       <c r="C104">
@@ -4840,13 +5112,16 @@
       </c>
       <c r="E104">
         <v>1024</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>759</v>
       </c>
-      <c r="B105" s="83" t="s">
+      <c r="B105" s="80" t="s">
         <v>760</v>
       </c>
       <c r="C105">
@@ -4857,6 +5132,9 @@
       </c>
       <c r="E105">
         <v>1024</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="M105" t="s">
         <v>4</v>
@@ -4866,7 +5144,7 @@
       <c r="A106" t="s">
         <v>761</v>
       </c>
-      <c r="B106" s="83" t="s">
+      <c r="B106" s="80" t="s">
         <v>762</v>
       </c>
       <c r="C106">
@@ -4877,6 +5155,9 @@
       </c>
       <c r="E106">
         <v>1024</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2">
@@ -4896,7 +5177,7 @@
       <c r="A107" t="s">
         <v>763</v>
       </c>
-      <c r="B107" s="83" t="s">
+      <c r="B107" s="80" t="s">
         <v>764</v>
       </c>
       <c r="C107">
@@ -4907,6 +5188,9 @@
       </c>
       <c r="E107">
         <v>1024</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="M107" s="2">
         <v>23</v>
@@ -4928,7 +5212,7 @@
       <c r="A108" t="s">
         <v>765</v>
       </c>
-      <c r="B108" s="83" t="s">
+      <c r="B108" s="80" t="s">
         <v>766</v>
       </c>
       <c r="C108">
@@ -4939,6 +5223,9 @@
       </c>
       <c r="E108">
         <v>1024</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="M108" s="2">
         <v>231</v>
@@ -4960,7 +5247,7 @@
       <c r="A109" t="s">
         <v>767</v>
       </c>
-      <c r="B109" s="83" t="s">
+      <c r="B109" s="80" t="s">
         <v>770</v>
       </c>
       <c r="C109">
@@ -4971,6 +5258,9 @@
       </c>
       <c r="E109">
         <v>1024</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="M109" s="2">
         <v>2346</v>
@@ -4992,7 +5282,7 @@
       <c r="A110" t="s">
         <v>768</v>
       </c>
-      <c r="B110" s="83" t="s">
+      <c r="B110" s="80" t="s">
         <v>771</v>
       </c>
       <c r="C110">
@@ -5003,6 +5293,9 @@
       </c>
       <c r="E110">
         <v>1024</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="M110" s="2">
         <v>2356</v>
@@ -5024,7 +5317,7 @@
       <c r="A111" t="s">
         <v>769</v>
       </c>
-      <c r="B111" s="83" t="s">
+      <c r="B111" s="80" t="s">
         <v>772</v>
       </c>
       <c r="C111">
@@ -5035,6 +5328,9 @@
       </c>
       <c r="E111">
         <v>1024</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="M111" s="2">
         <v>23451</v>
@@ -5056,7 +5352,7 @@
       <c r="A112" t="s">
         <v>773</v>
       </c>
-      <c r="B112" s="83" t="s">
+      <c r="B112" s="80" t="s">
         <v>776</v>
       </c>
       <c r="C112">
@@ -5067,6 +5363,9 @@
       </c>
       <c r="E112">
         <v>1024</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>801</v>
       </c>
       <c r="M112" s="2">
         <v>23561</v>
@@ -5088,7 +5387,7 @@
       <c r="A113" t="s">
         <v>774</v>
       </c>
-      <c r="B113" s="83" t="s">
+      <c r="B113" s="80" t="s">
         <v>777</v>
       </c>
       <c r="C113">
@@ -5099,13 +5398,16 @@
       </c>
       <c r="E113">
         <v>1024</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>775</v>
       </c>
-      <c r="B114" s="83" t="s">
+      <c r="B114" s="80" t="s">
         <v>778</v>
       </c>
       <c r="C114">
@@ -5116,13 +5418,16 @@
       </c>
       <c r="E114">
         <v>1024</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>779</v>
       </c>
-      <c r="B115" s="83" t="s">
+      <c r="B115" s="80" t="s">
         <v>782</v>
       </c>
       <c r="C115">
@@ -5133,6 +5438,9 @@
       </c>
       <c r="E115">
         <v>1024</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="M115" t="s">
         <v>7</v>
@@ -5142,7 +5450,7 @@
       <c r="A116" t="s">
         <v>780</v>
       </c>
-      <c r="B116" s="83" t="s">
+      <c r="B116" s="80" t="s">
         <v>783</v>
       </c>
       <c r="C116">
@@ -5153,6 +5461,9 @@
       </c>
       <c r="E116">
         <v>1024</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2">
@@ -5172,7 +5483,7 @@
       <c r="A117" t="s">
         <v>781</v>
       </c>
-      <c r="B117" s="83" t="s">
+      <c r="B117" s="80" t="s">
         <v>784</v>
       </c>
       <c r="C117">
@@ -5183,6 +5494,9 @@
       </c>
       <c r="E117">
         <v>1024</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="M117" s="2">
         <v>23</v>
@@ -5204,7 +5518,7 @@
       <c r="A118" t="s">
         <v>785</v>
       </c>
-      <c r="B118" s="83" t="s">
+      <c r="B118" s="80" t="s">
         <v>788</v>
       </c>
       <c r="C118">
@@ -5215,6 +5529,9 @@
       </c>
       <c r="E118">
         <v>1024</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="M118" s="2">
         <v>231</v>
@@ -5236,7 +5553,7 @@
       <c r="A119" t="s">
         <v>786</v>
       </c>
-      <c r="B119" s="83" t="s">
+      <c r="B119" s="80" t="s">
         <v>789</v>
       </c>
       <c r="C119">
@@ -5247,6 +5564,9 @@
       </c>
       <c r="E119">
         <v>1024</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>808</v>
       </c>
       <c r="M119" s="2">
         <v>2346</v>
@@ -5268,7 +5588,7 @@
       <c r="A120" t="s">
         <v>787</v>
       </c>
-      <c r="B120" s="83" t="s">
+      <c r="B120" s="80" t="s">
         <v>790</v>
       </c>
       <c r="C120">
@@ -5279,6 +5599,9 @@
       </c>
       <c r="E120">
         <v>1024</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="M120" s="2">
         <v>2356</v>
@@ -5361,11 +5684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601E7AD6-C7DC-46BD-902B-95934BE8D582}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A4:V106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M109" sqref="M109"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U74" sqref="U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,7 +5758,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>512</v>
       </c>
@@ -5474,7 +5796,7 @@
         <v>0.66843501326259902</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>512</v>
       </c>
@@ -5512,7 +5834,7 @@
         <v>0.66312997347480096</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>512</v>
       </c>
@@ -5550,7 +5872,7 @@
         <v>0.91598915989159801</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>512</v>
       </c>
@@ -5588,7 +5910,7 @@
         <v>0.913279132791327</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -5650,7 +5972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>512</v>
       </c>
@@ -5688,7 +6010,7 @@
         <v>0.93176470588235205</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>512</v>
       </c>
@@ -5726,7 +6048,7 @@
         <v>0.93176470588235205</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>512</v>
       </c>
@@ -5764,7 +6086,7 @@
         <v>0.93176470588235205</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -5820,7 +6142,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -5876,7 +6198,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -5938,7 +6260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -6000,7 +6322,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -6062,7 +6384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -6103,7 +6425,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -6165,7 +6487,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -6227,7 +6549,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>512</v>
       </c>
@@ -6265,7 +6587,7 @@
         <v>0.75066312997347395</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>512</v>
       </c>
@@ -6303,7 +6625,7 @@
         <v>0.90588235294117603</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>512</v>
       </c>
@@ -6341,7 +6663,7 @@
         <v>0.90588235294117603</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>512</v>
       </c>
@@ -6379,7 +6701,7 @@
         <v>0.90588235294117603</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>512</v>
       </c>
@@ -6417,7 +6739,7 @@
         <v>0.90352941176470503</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>512</v>
       </c>
@@ -6455,7 +6777,7 @@
         <v>0.74270557029177697</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -6517,7 +6839,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -6579,7 +6901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -6837,7 +7159,7 @@
         <v>0.44297082228116702</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -6899,7 +7221,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>512</v>
       </c>
@@ -6937,7 +7259,7 @@
         <v>0.607427055702917</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>512</v>
       </c>
@@ -6975,7 +7297,7 @@
         <v>0.59416445623342096</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -7016,7 +7338,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -7054,7 +7376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -7092,7 +7414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -7130,7 +7452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -7168,8 +7490,6 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
@@ -7208,8 +7528,6 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>377</v>
@@ -7272,7 +7590,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>378</v>
       </c>
@@ -7337,7 +7655,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>379</v>
       </c>
@@ -7402,7 +7720,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>380</v>
       </c>
@@ -7467,7 +7785,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -7532,7 +7850,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>382</v>
       </c>
@@ -7597,7 +7915,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>383</v>
       </c>
@@ -7662,10 +7980,10 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B55" s="80"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -7730,7 +8048,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -7795,7 +8113,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>395</v>
       </c>
@@ -7857,7 +8175,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>397</v>
       </c>
@@ -7922,7 +8240,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>399</v>
       </c>
@@ -7987,8 +8305,6 @@
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>462</v>
@@ -8054,7 +8370,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>464</v>
       </c>
@@ -8119,7 +8435,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>463</v>
       </c>
@@ -8184,7 +8500,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>465</v>
       </c>
@@ -8249,7 +8565,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>466</v>
       </c>
@@ -8314,7 +8630,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>467</v>
       </c>
@@ -8379,7 +8695,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B69" s="80"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -8447,7 +8763,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>469</v>
       </c>
@@ -8512,7 +8828,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>470</v>
       </c>
@@ -8577,7 +8893,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -8642,7 +8958,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>472</v>
       </c>
@@ -8707,7 +9023,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>473</v>
       </c>
@@ -8772,7 +9088,6 @@
         <v>516</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>519</v>
@@ -9089,10 +9404,10 @@
         <v>613</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B82" s="80"/>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>542</v>
       </c>
@@ -9139,7 +9454,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>544</v>
       </c>
@@ -9186,7 +9501,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>546</v>
       </c>
@@ -9254,7 +9569,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>548</v>
       </c>
@@ -9301,7 +9616,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>550</v>
       </c>
@@ -9348,10 +9663,10 @@
         <v>614</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B88" s="80"/>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>552</v>
       </c>
@@ -9398,7 +9713,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>554</v>
       </c>
@@ -9445,7 +9760,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>557</v>
       </c>
@@ -9510,7 +9825,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>560</v>
       </c>
@@ -9554,7 +9869,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>561</v>
       </c>
@@ -9598,10 +9913,10 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B94" s="80"/>
     </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>562</v>
       </c>
@@ -9648,7 +9963,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>564</v>
       </c>
@@ -9695,7 +10010,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>566</v>
       </c>
@@ -9760,7 +10075,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>568</v>
       </c>
@@ -9825,7 +10140,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>570</v>
       </c>
@@ -9872,10 +10187,10 @@
         <v>614</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B100" s="80"/>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>572</v>
       </c>
@@ -9922,7 +10237,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>574</v>
       </c>
@@ -9966,7 +10281,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>576</v>
       </c>
@@ -10010,7 +10325,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>578</v>
       </c>
@@ -10054,7 +10369,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>580</v>
       </c>
@@ -10102,13 +10417,7 @@
       <c r="B106" s="80"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:V105" xr:uid="{7C72EBC4-F289-48C4-B48E-C48DCA9F6FB6}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="diabetes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:V105" xr:uid="{7C72EBC4-F289-48C4-B48E-C48DCA9F6FB6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10117,20 +10426,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B449C1E-24E0-4836-8128-F2BB8C3877FE}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -10171,7 +10483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>38397635</v>
       </c>
@@ -10199,8 +10511,35 @@
       <c r="O5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>873</v>
+      </c>
+      <c r="S5" t="s">
+        <v>874</v>
+      </c>
+      <c r="T5" t="s">
+        <v>875</v>
+      </c>
+      <c r="U5" t="s">
+        <v>876</v>
+      </c>
+      <c r="V5" t="s">
+        <v>877</v>
+      </c>
+      <c r="W5" t="s">
+        <v>878</v>
+      </c>
+      <c r="X5" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>880</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>38397635</v>
       </c>
@@ -10228,8 +10567,35 @@
       <c r="O6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>811</v>
+      </c>
+      <c r="S6" s="83">
+        <v>39752416</v>
+      </c>
+      <c r="T6">
+        <v>1024</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>512</v>
+      </c>
+      <c r="W6">
+        <v>128</v>
+      </c>
+      <c r="X6" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y6">
+        <v>63.2</v>
+      </c>
+      <c r="Z6">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>38431036</v>
       </c>
@@ -10257,8 +10623,35 @@
       <c r="O7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>812</v>
+      </c>
+      <c r="S7" s="83">
+        <v>39752421</v>
+      </c>
+      <c r="T7">
+        <v>1024</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>512</v>
+      </c>
+      <c r="W7">
+        <v>128</v>
+      </c>
+      <c r="X7" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y7">
+        <v>49.9</v>
+      </c>
+      <c r="Z7">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>38431036</v>
       </c>
@@ -10286,8 +10679,35 @@
       <c r="O8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>813</v>
+      </c>
+      <c r="S8" s="83">
+        <v>39752426</v>
+      </c>
+      <c r="T8">
+        <v>1024</v>
+      </c>
+      <c r="U8">
+        <v>40</v>
+      </c>
+      <c r="V8">
+        <v>512</v>
+      </c>
+      <c r="W8">
+        <v>128</v>
+      </c>
+      <c r="X8" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y8">
+        <v>50</v>
+      </c>
+      <c r="Z8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -10330,8 +10750,35 @@
       <c r="O9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>814</v>
+      </c>
+      <c r="S9" s="83">
+        <v>39752433</v>
+      </c>
+      <c r="T9">
+        <v>1024</v>
+      </c>
+      <c r="U9">
+        <v>80</v>
+      </c>
+      <c r="V9">
+        <v>512</v>
+      </c>
+      <c r="W9">
+        <v>128</v>
+      </c>
+      <c r="X9" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y9">
+        <v>66</v>
+      </c>
+      <c r="Z9">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -10374,8 +10821,35 @@
       <c r="O10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>815</v>
+      </c>
+      <c r="S10" s="83">
+        <v>39752440</v>
+      </c>
+      <c r="T10">
+        <v>1024</v>
+      </c>
+      <c r="U10">
+        <v>160</v>
+      </c>
+      <c r="V10">
+        <v>512</v>
+      </c>
+      <c r="W10">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y10">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="Z10">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -10400,8 +10874,29 @@
       <c r="O11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>816</v>
+      </c>
+      <c r="S11" s="83">
+        <v>39752487</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>40</v>
+      </c>
+      <c r="V11">
+        <v>512</v>
+      </c>
+      <c r="W11">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -10425,6 +10920,427 @@
       </c>
       <c r="O12" t="s">
         <v>132</v>
+      </c>
+      <c r="R12" t="s">
+        <v>817</v>
+      </c>
+      <c r="S12" s="83">
+        <v>39752496</v>
+      </c>
+      <c r="T12">
+        <v>32</v>
+      </c>
+      <c r="U12">
+        <v>40</v>
+      </c>
+      <c r="V12">
+        <v>512</v>
+      </c>
+      <c r="W12">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y12">
+        <v>50</v>
+      </c>
+      <c r="Z12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>818</v>
+      </c>
+      <c r="S13" s="83">
+        <v>39752501</v>
+      </c>
+      <c r="T13">
+        <v>128</v>
+      </c>
+      <c r="U13">
+        <v>40</v>
+      </c>
+      <c r="V13">
+        <v>512</v>
+      </c>
+      <c r="W13">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y13">
+        <v>62.8</v>
+      </c>
+      <c r="Z13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>819</v>
+      </c>
+      <c r="S14" s="83">
+        <v>39752514</v>
+      </c>
+      <c r="T14">
+        <v>512</v>
+      </c>
+      <c r="U14">
+        <v>40</v>
+      </c>
+      <c r="V14">
+        <v>512</v>
+      </c>
+      <c r="W14">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y14">
+        <v>50</v>
+      </c>
+      <c r="Z14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>820</v>
+      </c>
+      <c r="S15" s="83">
+        <v>39752521</v>
+      </c>
+      <c r="T15">
+        <v>2048</v>
+      </c>
+      <c r="U15">
+        <v>40</v>
+      </c>
+      <c r="V15">
+        <v>512</v>
+      </c>
+      <c r="W15">
+        <v>128</v>
+      </c>
+      <c r="X15" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y15">
+        <v>50</v>
+      </c>
+      <c r="Z15">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>821</v>
+      </c>
+      <c r="S16" s="83">
+        <v>39753358</v>
+      </c>
+      <c r="T16">
+        <v>1024</v>
+      </c>
+      <c r="U16">
+        <v>40</v>
+      </c>
+      <c r="V16">
+        <v>64</v>
+      </c>
+      <c r="W16">
+        <v>128</v>
+      </c>
+      <c r="X16" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y16">
+        <v>50</v>
+      </c>
+      <c r="Z16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>822</v>
+      </c>
+      <c r="S17" s="83">
+        <v>39753368</v>
+      </c>
+      <c r="T17">
+        <v>1024</v>
+      </c>
+      <c r="U17">
+        <v>40</v>
+      </c>
+      <c r="V17">
+        <v>128</v>
+      </c>
+      <c r="W17">
+        <v>128</v>
+      </c>
+      <c r="X17" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y17">
+        <v>50</v>
+      </c>
+      <c r="Z17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>823</v>
+      </c>
+      <c r="S18" s="83">
+        <v>39753377</v>
+      </c>
+      <c r="T18">
+        <v>1024</v>
+      </c>
+      <c r="U18">
+        <v>40</v>
+      </c>
+      <c r="V18">
+        <v>256</v>
+      </c>
+      <c r="W18">
+        <v>128</v>
+      </c>
+      <c r="X18" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y18">
+        <v>65.8</v>
+      </c>
+      <c r="Z18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>813</v>
+      </c>
+      <c r="S19" s="83">
+        <v>39752426</v>
+      </c>
+      <c r="T19">
+        <v>1024</v>
+      </c>
+      <c r="U19">
+        <v>40</v>
+      </c>
+      <c r="V19">
+        <v>512</v>
+      </c>
+      <c r="W19">
+        <v>128</v>
+      </c>
+      <c r="X19" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y19">
+        <v>50</v>
+      </c>
+      <c r="Z19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>824</v>
+      </c>
+      <c r="S20" s="83">
+        <v>39753511</v>
+      </c>
+      <c r="T20">
+        <v>1024</v>
+      </c>
+      <c r="U20">
+        <v>40</v>
+      </c>
+      <c r="V20">
+        <v>1024</v>
+      </c>
+      <c r="W20">
+        <v>128</v>
+      </c>
+      <c r="X20" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y20">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="Z20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>825</v>
+      </c>
+      <c r="S21" s="83">
+        <v>39754186</v>
+      </c>
+      <c r="T21">
+        <v>1024</v>
+      </c>
+      <c r="U21">
+        <v>40</v>
+      </c>
+      <c r="V21">
+        <v>512</v>
+      </c>
+      <c r="W21">
+        <v>64</v>
+      </c>
+      <c r="X21" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y21">
+        <v>49.9</v>
+      </c>
+      <c r="Z21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>813</v>
+      </c>
+      <c r="S22" s="83">
+        <v>39752426</v>
+      </c>
+      <c r="T22">
+        <v>1024</v>
+      </c>
+      <c r="U22">
+        <v>40</v>
+      </c>
+      <c r="V22">
+        <v>512</v>
+      </c>
+      <c r="W22">
+        <v>128</v>
+      </c>
+      <c r="X22" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y22">
+        <v>50</v>
+      </c>
+      <c r="Z22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>826</v>
+      </c>
+      <c r="S23" s="83">
+        <v>39754339</v>
+      </c>
+      <c r="T23">
+        <v>1024</v>
+      </c>
+      <c r="U23">
+        <v>40</v>
+      </c>
+      <c r="V23">
+        <v>512</v>
+      </c>
+      <c r="W23">
+        <v>256</v>
+      </c>
+      <c r="X23" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y23">
+        <v>62.9</v>
+      </c>
+      <c r="Z23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>827</v>
+      </c>
+      <c r="S24" s="83">
+        <v>39754351</v>
+      </c>
+      <c r="T24">
+        <v>1024</v>
+      </c>
+      <c r="U24">
+        <v>40</v>
+      </c>
+      <c r="V24">
+        <v>512</v>
+      </c>
+      <c r="W24">
+        <v>512</v>
+      </c>
+      <c r="X24" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="25" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>828</v>
+      </c>
+      <c r="S25" s="83">
+        <v>39754367</v>
+      </c>
+      <c r="T25">
+        <v>1024</v>
+      </c>
+      <c r="U25">
+        <v>40</v>
+      </c>
+      <c r="V25">
+        <v>512</v>
+      </c>
+      <c r="W25">
+        <v>1024</v>
+      </c>
+      <c r="X25" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y25">
+        <v>49.9</v>
+      </c>
+      <c r="Z25">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="27" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>815</v>
+      </c>
+      <c r="S27" s="83">
+        <v>39958126</v>
+      </c>
+      <c r="T27">
+        <v>1024</v>
+      </c>
+      <c r="U27">
+        <v>160</v>
+      </c>
+      <c r="V27">
+        <v>512</v>
+      </c>
+      <c r="W27">
+        <v>128</v>
+      </c>
+      <c r="X27" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -10434,10 +11350,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBFEA-1E1E-4E34-8704-944B12C48546}">
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A2:Q56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11506,7 +12422,7 @@
         <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
@@ -11547,7 +12463,7 @@
         <v>375</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>70</v>
@@ -11580,18 +12496,1690 @@
         <v>376</v>
       </c>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>829</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>830</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32">
+        <v>1024</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>512</v>
+      </c>
+      <c r="H32">
+        <v>128</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>810</v>
+      </c>
+      <c r="K32" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>831</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>832</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33">
+        <v>1024</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>512</v>
+      </c>
+      <c r="H33">
+        <v>128</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>810</v>
+      </c>
+      <c r="K33" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>833</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>834</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <v>1024</v>
+      </c>
+      <c r="F34">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>512</v>
+      </c>
+      <c r="H34">
+        <v>128</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>810</v>
+      </c>
+      <c r="K34" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>835</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>836</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35">
+        <v>1024</v>
+      </c>
+      <c r="F35">
+        <v>80</v>
+      </c>
+      <c r="G35">
+        <v>512</v>
+      </c>
+      <c r="H35">
+        <v>128</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>810</v>
+      </c>
+      <c r="K35" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>837</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>838</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <v>1024</v>
+      </c>
+      <c r="F36">
+        <v>160</v>
+      </c>
+      <c r="G36">
+        <v>512</v>
+      </c>
+      <c r="H36">
+        <v>128</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>839</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>840</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>512</v>
+      </c>
+      <c r="H37">
+        <v>128</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>841</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>842</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <v>512</v>
+      </c>
+      <c r="H38">
+        <v>128</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>843</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>844</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39">
+        <v>128</v>
+      </c>
+      <c r="F39">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>512</v>
+      </c>
+      <c r="H39">
+        <v>128</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>845</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>846</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40">
+        <v>512</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <v>512</v>
+      </c>
+      <c r="H40">
+        <v>128</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>847</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>848</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41">
+        <v>2048</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>512</v>
+      </c>
+      <c r="H41">
+        <v>128</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>849</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>850</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42">
+        <v>1024</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>64</v>
+      </c>
+      <c r="H42">
+        <v>128</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>851</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>852</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43">
+        <v>1024</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>128</v>
+      </c>
+      <c r="H43">
+        <v>128</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>853</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>854</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44">
+        <v>1024</v>
+      </c>
+      <c r="F44">
+        <v>40</v>
+      </c>
+      <c r="G44">
+        <v>256</v>
+      </c>
+      <c r="H44">
+        <v>128</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>833</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>834</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45">
+        <v>1024</v>
+      </c>
+      <c r="F45">
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <v>512</v>
+      </c>
+      <c r="H45">
+        <v>128</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>855</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>856</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46">
+        <v>1024</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>1024</v>
+      </c>
+      <c r="H46">
+        <v>128</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>857</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>858</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47">
+        <v>1024</v>
+      </c>
+      <c r="F47">
+        <v>40</v>
+      </c>
+      <c r="G47">
+        <v>512</v>
+      </c>
+      <c r="H47">
+        <v>64</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>833</v>
+      </c>
+      <c r="B48" s="80" t="s">
+        <v>834</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48">
+        <v>1024</v>
+      </c>
+      <c r="F48">
+        <v>40</v>
+      </c>
+      <c r="G48">
+        <v>512</v>
+      </c>
+      <c r="H48">
+        <v>128</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>860</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>861</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49">
+        <v>1024</v>
+      </c>
+      <c r="F49">
+        <v>40</v>
+      </c>
+      <c r="G49">
+        <v>512</v>
+      </c>
+      <c r="H49">
+        <v>256</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>859</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>862</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50">
+        <v>1024</v>
+      </c>
+      <c r="F50">
+        <v>40</v>
+      </c>
+      <c r="G50">
+        <v>512</v>
+      </c>
+      <c r="H50">
+        <v>512</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>863</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>864</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51">
+        <v>1024</v>
+      </c>
+      <c r="F51">
+        <v>40</v>
+      </c>
+      <c r="G51">
+        <v>512</v>
+      </c>
+      <c r="H51">
+        <v>1024</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>833</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>834</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52">
+        <v>1024</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>512</v>
+      </c>
+      <c r="H52">
+        <v>128</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>865</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>866</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53">
+        <v>1024</v>
+      </c>
+      <c r="F53">
+        <v>40</v>
+      </c>
+      <c r="G53">
+        <v>512</v>
+      </c>
+      <c r="H53">
+        <v>128</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>867</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>868</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54">
+        <v>1024</v>
+      </c>
+      <c r="F54">
+        <v>40</v>
+      </c>
+      <c r="G54">
+        <v>512</v>
+      </c>
+      <c r="H54">
+        <v>128</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>869</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>870</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55">
+        <v>1024</v>
+      </c>
+      <c r="F55">
+        <v>40</v>
+      </c>
+      <c r="G55">
+        <v>512</v>
+      </c>
+      <c r="H55">
+        <v>128</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>871</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>872</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56">
+        <v>1024</v>
+      </c>
+      <c r="F56">
+        <v>40</v>
+      </c>
+      <c r="G56">
+        <v>512</v>
+      </c>
+      <c r="H56">
+        <v>128</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>810</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:Q30" xr:uid="{0E1EB60B-2B6B-47A6-BB12-E5FDEA7BE635}"/>
+  <autoFilter ref="A4:Q30" xr:uid="{ADE1BD9B-067C-4E50-90F5-AEAD57EF1776}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72459C8E-9F0A-4AD0-9921-19B478528AB1}">
+  <dimension ref="B2:F53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="82">
+        <v>38970383</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="82">
+        <v>38970942</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C5" s="82">
+        <v>38970949</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="82">
+        <v>38970951</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="82">
+        <v>38970959</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C8" s="82">
+        <v>38970966</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="82">
+        <v>38970969</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C10" s="82">
+        <v>39063626</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C11" s="82">
+        <v>39063639</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" s="82">
+        <v>39063683</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" s="82">
+        <v>39063731</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C14" s="82">
+        <v>39064951</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>654</v>
+      </c>
+      <c r="C15" s="82">
+        <v>39064965</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>655</v>
+      </c>
+      <c r="C16" s="82">
+        <v>39064984</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C17" s="82">
+        <v>39064995</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>649</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>657</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>658</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>652</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>660</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>667</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>668</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>669</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>670</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>672</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>673</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>674</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>675</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>679</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>680</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>677</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>681</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>682</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>653</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>692</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>654</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>693</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>655</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>694</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>656</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>695</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>696</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>697</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>698</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>699</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>700</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>701</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>702</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>703</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>705</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>706</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>708</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>710</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>709</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>675</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>712</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>676</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>713</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>677</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>714</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>678</v>
+      </c>
+      <c r="C45" s="80" t="s">
+        <v>715</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>732</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>734</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>736</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>737</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>738</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>740</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="D50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" t="s">
+        <v>745</v>
+      </c>
+      <c r="F50" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>742</v>
+      </c>
+      <c r="C51" s="83">
+        <v>39291653</v>
+      </c>
+      <c r="D51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>745</v>
+      </c>
+      <c r="F51" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>743</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>745</v>
+      </c>
+      <c r="F52" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>744</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="D53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" t="s">
+        <v>745</v>
+      </c>
+      <c r="F53" t="s">
+        <v>792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A46EE1-7CAF-49A9-B1BA-545C7C32D36C}">
   <dimension ref="A3:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12316,6 +14904,44 @@
         <v>258</v>
       </c>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>884</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>512</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>0.223</v>
+      </c>
+      <c r="K22">
+        <v>0.501</v>
+      </c>
+      <c r="P22" t="s">
+        <v>885</v>
+      </c>
+    </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>237</v>
@@ -12423,13 +15049,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:K11" xr:uid="{A58E79FB-B7E3-4BBD-A0B0-933FD4ED5FDD}"/>
+  <autoFilter ref="A5:Q24" xr:uid="{A2BEB74C-3840-41B4-AAA7-BD656713C62B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9069C016-C277-4871-8E62-8014E1C22F6D}">
   <dimension ref="B4:N35"/>
   <sheetViews>
@@ -13320,13 +15946,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F456152D-3B5F-4521-8CD6-B065891FD82C}">
   <sheetPr filterMode="1"/>
   <dimension ref="B3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13997,7 +16623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42A3059-9B4D-4A33-81FE-44FFA371F1B0}">
   <dimension ref="B2:AN53"/>
   <sheetViews>
@@ -14028,19 +16654,19 @@
       </c>
     </row>
     <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="92"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>32</v>
@@ -14056,7 +16682,7 @@
       </c>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="8">
         <v>23</v>
       </c>
@@ -14074,7 +16700,7 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="8">
         <v>231</v>
       </c>
@@ -14092,7 +16718,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="92"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="8">
         <v>2346</v>
       </c>
@@ -14110,7 +16736,7 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="92"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="8">
         <v>2356</v>
       </c>
@@ -14128,7 +16754,7 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="8">
         <v>23451</v>
       </c>
@@ -14146,7 +16772,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="93"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="9">
         <v>23561</v>
       </c>
@@ -14185,81 +16811,81 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="100" t="s">
+      <c r="K13" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="86" t="s">
+      <c r="L13" s="93"/>
+      <c r="M13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="86" t="s">
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="87"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="99"/>
       <c r="AA13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="AB13" s="22"/>
     </row>
     <row r="14" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="84" t="s">
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="88"/>
-      <c r="O14" s="84" t="s">
+      <c r="N14" s="101"/>
+      <c r="O14" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="84" t="s">
+      <c r="P14" s="101"/>
+      <c r="Q14" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="88"/>
-      <c r="S14" s="84" t="s">
+      <c r="R14" s="101"/>
+      <c r="S14" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="88"/>
-      <c r="U14" s="84" t="s">
+      <c r="T14" s="101"/>
+      <c r="U14" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="85"/>
-      <c r="W14" s="97" t="s">
+      <c r="V14" s="102"/>
+      <c r="W14" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="84" t="s">
+      <c r="X14" s="101"/>
+      <c r="Y14" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="85"/>
+      <c r="Z14" s="102"/>
       <c r="AA14" s="29" t="s">
         <v>20</v>
       </c>
       <c r="AB14" s="22"/>
     </row>
     <row r="15" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="92"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20">
         <v>32</v>
@@ -14273,8 +16899,8 @@
       <c r="G15" s="21">
         <v>1024</v>
       </c>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="23" t="s">
         <v>19</v>
       </c>
@@ -14323,7 +16949,7 @@
       <c r="AB15" s="22"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="92"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="17">
         <v>23</v>
       </c>
@@ -14339,7 +16965,7 @@
       <c r="G16" s="14">
         <v>0.60948048939530397</v>
       </c>
-      <c r="K16" s="98" t="s">
+      <c r="K16" s="88" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="25" t="s">
@@ -14393,7 +17019,7 @@
       <c r="AB16" s="22"/>
     </row>
     <row r="17" spans="2:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="92"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="17">
         <v>231</v>
       </c>
@@ -14409,7 +17035,7 @@
       <c r="G17" s="14">
         <v>0.66893504955374705</v>
       </c>
-      <c r="K17" s="99"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="27" t="s">
         <v>22</v>
       </c>
@@ -14433,7 +17059,7 @@
       <c r="AB17" s="22"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="17">
         <v>2346</v>
       </c>
@@ -14449,7 +17075,7 @@
       <c r="G18" s="14">
         <v>0.60400491753045404</v>
       </c>
-      <c r="K18" s="98" t="s">
+      <c r="K18" s="88" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="26" t="s">
@@ -14501,7 +17127,7 @@
       <c r="AB18" s="22"/>
     </row>
     <row r="19" spans="2:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="17">
         <v>2356</v>
       </c>
@@ -14517,7 +17143,7 @@
       <c r="G19" s="14">
         <v>0.62075499341713003</v>
       </c>
-      <c r="K19" s="99"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="38" t="s">
         <v>22</v>
       </c>
@@ -14541,7 +17167,7 @@
       <c r="AB19" s="22"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="92"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="17">
         <v>23451</v>
       </c>
@@ -14557,7 +17183,7 @@
       <c r="G20" s="14">
         <v>0.59884388318465598</v>
       </c>
-      <c r="K20" s="106" t="s">
+      <c r="K20" s="90" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="47" t="s">
@@ -14567,37 +17193,37 @@
         <v>42</v>
       </c>
       <c r="N20" s="34"/>
-      <c r="O20" s="109" t="s">
+      <c r="O20" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="109" t="s">
+      <c r="P20" s="87"/>
+      <c r="Q20" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="R20" s="96"/>
+      <c r="R20" s="87"/>
       <c r="S20" s="35" t="s">
         <v>42</v>
       </c>
       <c r="T20" s="34"/>
-      <c r="U20" s="109" t="s">
+      <c r="U20" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="V20" s="108"/>
-      <c r="W20" s="95" t="s">
+      <c r="V20" s="85"/>
+      <c r="W20" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="95" t="s">
+      <c r="X20" s="87"/>
+      <c r="Y20" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="108"/>
+      <c r="Z20" s="85"/>
       <c r="AA20" s="45" t="s">
         <v>41</v>
       </c>
       <c r="AB20" s="22"/>
     </row>
     <row r="21" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="93"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="18">
         <v>23561</v>
       </c>
@@ -14613,7 +17239,7 @@
       <c r="G21" s="16">
         <v>0.63861343040204799</v>
       </c>
-      <c r="K21" s="107"/>
+      <c r="K21" s="91"/>
       <c r="L21" s="38" t="s">
         <v>46</v>
       </c>
@@ -14740,12 +17366,12 @@
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="110" t="s">
+      <c r="V26" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
       <c r="Z26" s="22"/>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
@@ -14912,70 +17538,70 @@
     </row>
     <row r="37" spans="11:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="11:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K38" s="100" t="s">
+      <c r="K38" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="101"/>
-      <c r="M38" s="86" t="s">
+      <c r="L38" s="93"/>
+      <c r="M38" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="86" t="s">
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="X38" s="86"/>
-      <c r="Y38" s="86"/>
-      <c r="Z38" s="87"/>
+      <c r="X38" s="98"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="99"/>
       <c r="AA38" s="60" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="11:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="102"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="84" t="s">
+      <c r="K39" s="94"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="N39" s="88"/>
-      <c r="O39" s="84" t="s">
+      <c r="N39" s="101"/>
+      <c r="O39" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="84" t="s">
+      <c r="P39" s="101"/>
+      <c r="Q39" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="88"/>
-      <c r="S39" s="84" t="s">
+      <c r="R39" s="101"/>
+      <c r="S39" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="T39" s="88"/>
-      <c r="U39" s="84" t="s">
+      <c r="T39" s="101"/>
+      <c r="U39" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="V39" s="85"/>
-      <c r="W39" s="97" t="s">
+      <c r="V39" s="102"/>
+      <c r="W39" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="X39" s="88"/>
-      <c r="Y39" s="84" t="s">
+      <c r="X39" s="101"/>
+      <c r="Y39" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Z39" s="85"/>
+      <c r="Z39" s="102"/>
       <c r="AA39" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="11:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="104"/>
-      <c r="L40" s="105"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="97"/>
       <c r="M40" s="23" t="s">
         <v>19</v>
       </c>
@@ -15023,7 +17649,7 @@
       </c>
     </row>
     <row r="41" spans="11:40" x14ac:dyDescent="0.25">
-      <c r="K41" s="98" t="s">
+      <c r="K41" s="88" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="25" t="s">
@@ -15090,7 +17716,7 @@
       </c>
     </row>
     <row r="42" spans="11:40" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="99"/>
+      <c r="K42" s="89"/>
       <c r="L42" s="27" t="s">
         <v>22</v>
       </c>
@@ -15113,7 +17739,7 @@
       </c>
     </row>
     <row r="43" spans="11:40" x14ac:dyDescent="0.25">
-      <c r="K43" s="98" t="s">
+      <c r="K43" s="88" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="26" t="s">
@@ -15168,7 +17794,7 @@
       </c>
     </row>
     <row r="44" spans="11:40" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K44" s="99"/>
+      <c r="K44" s="89"/>
       <c r="L44" s="38" t="s">
         <v>22</v>
       </c>
@@ -15191,7 +17817,7 @@
       </c>
     </row>
     <row r="45" spans="11:40" x14ac:dyDescent="0.25">
-      <c r="K45" s="106" t="s">
+      <c r="K45" s="90" t="s">
         <v>26</v>
       </c>
       <c r="L45" s="47" t="s">
@@ -15201,36 +17827,36 @@
         <v>42</v>
       </c>
       <c r="N45" s="59"/>
-      <c r="O45" s="109" t="s">
+      <c r="O45" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="109" t="s">
+      <c r="P45" s="87"/>
+      <c r="Q45" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="96"/>
+      <c r="R45" s="87"/>
       <c r="S45" s="57" t="s">
         <v>42</v>
       </c>
       <c r="T45" s="59"/>
-      <c r="U45" s="109" t="s">
+      <c r="U45" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="V45" s="108"/>
-      <c r="W45" s="95" t="s">
+      <c r="V45" s="85"/>
+      <c r="W45" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="95" t="s">
+      <c r="X45" s="87"/>
+      <c r="Y45" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="Z45" s="108"/>
+      <c r="Z45" s="85"/>
       <c r="AA45" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="11:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K46" s="107"/>
+      <c r="K46" s="91"/>
       <c r="L46" s="38" t="s">
         <v>46</v>
       </c>
@@ -15298,14 +17924,29 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K13:L15"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="V26:Y26"/>
     <mergeCell ref="K38:L40"/>
     <mergeCell ref="M38:V38"/>
     <mergeCell ref="W38:Z38"/>
@@ -15316,29 +17957,14 @@
     <mergeCell ref="U39:V39"/>
     <mergeCell ref="W39:X39"/>
     <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K13:L15"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:G11">
     <cfRule type="colorScale" priority="14">
@@ -15391,864 +18017,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72459C8E-9F0A-4AD0-9921-19B478528AB1}">
-  <dimension ref="B2:F53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E2" t="s">
-        <v>661</v>
-      </c>
-      <c r="F2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C3" s="82">
-        <v>38970383</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>625</v>
-      </c>
-      <c r="C4" s="82">
-        <v>38970942</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>626</v>
-      </c>
-      <c r="C5" s="82">
-        <v>38970949</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C6" s="82">
-        <v>38970951</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>628</v>
-      </c>
-      <c r="C7" s="82">
-        <v>38970959</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>629</v>
-      </c>
-      <c r="C8" s="82">
-        <v>38970966</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C9" s="82">
-        <v>38970969</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>649</v>
-      </c>
-      <c r="C10" s="82">
-        <v>39063626</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>650</v>
-      </c>
-      <c r="C11" s="82">
-        <v>39063639</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>651</v>
-      </c>
-      <c r="C12" s="82">
-        <v>39063683</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>652</v>
-      </c>
-      <c r="C13" s="82">
-        <v>39063731</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>653</v>
-      </c>
-      <c r="C14" s="82">
-        <v>39064951</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>654</v>
-      </c>
-      <c r="C15" s="82">
-        <v>39064965</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>655</v>
-      </c>
-      <c r="C16" s="82">
-        <v>39064984</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>656</v>
-      </c>
-      <c r="C17" s="82">
-        <v>39064995</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>649</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>657</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>650</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>658</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>659</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>652</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>660</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>667</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>668</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>669</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>670</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>671</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>672</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>673</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>674</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>675</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>679</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>676</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>680</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>677</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>681</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>678</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>682</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>653</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>692</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>654</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>693</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>655</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>694</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>656</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>695</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>696</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>697</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>698</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>699</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>700</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>701</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>702</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>703</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>704</v>
-      </c>
-      <c r="C38" s="80" t="s">
-        <v>705</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>706</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>707</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>708</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>710</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>709</v>
-      </c>
-      <c r="C41" s="80" t="s">
-        <v>711</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>675</v>
-      </c>
-      <c r="C42" s="80" t="s">
-        <v>712</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>676</v>
-      </c>
-      <c r="C43" s="80" t="s">
-        <v>713</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>677</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>714</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>678</v>
-      </c>
-      <c r="C45" s="80" t="s">
-        <v>715</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>732</v>
-      </c>
-      <c r="C46" s="80" t="s">
-        <v>733</v>
-      </c>
-      <c r="D46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>734</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>735</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>736</v>
-      </c>
-      <c r="C48" s="80" t="s">
-        <v>737</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>738</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>739</v>
-      </c>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>740</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>741</v>
-      </c>
-      <c r="D50" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" t="s">
-        <v>745</v>
-      </c>
-      <c r="F50" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>742</v>
-      </c>
-      <c r="C51" s="111">
-        <v>39291653</v>
-      </c>
-      <c r="D51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51" t="s">
-        <v>745</v>
-      </c>
-      <c r="F51" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>743</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>752</v>
-      </c>
-      <c r="D52" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" t="s">
-        <v>745</v>
-      </c>
-      <c r="F52" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>744</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>753</v>
-      </c>
-      <c r="D53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E53" t="s">
-        <v>745</v>
-      </c>
-      <c r="F53" t="s">
-        <v>792</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>